--- a/ASEK/8.xlsx
+++ b/ASEK/8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carllavo/Desktop/MEX/mexscal/ASEK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FE34FD-0D90-074E-A216-001772E04331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4DBF68-BE1A-C347-97FD-6BF5C970B245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16800" xr2:uid="{E77F6151-2DB5-FF41-9949-A8173A5741EB}"/>
+    <workbookView xWindow="1500" yWindow="1260" windowWidth="27640" windowHeight="16800" xr2:uid="{E77F6151-2DB5-FF41-9949-A8173A5741EB}"/>
   </bookViews>
   <sheets>
     <sheet name="8" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="142">
   <si>
     <t>-</t>
   </si>
@@ -498,51 +498,6 @@
     <t>Lastbilar</t>
   </si>
   <si>
-    <t>Elpris, inkl. energiskatt men exkl. moms (Samgods)</t>
-  </si>
-  <si>
-    <t>Elpris, inkl. energiskatt och moms</t>
-  </si>
-  <si>
-    <t>Energiskatt, exkl. moms</t>
-  </si>
-  <si>
-    <t>Produktpris, exkl. skatt men inkl. moms (EVA)</t>
-  </si>
-  <si>
-    <t>Produktpris, exkl. skatter och moms (Bansek)</t>
-  </si>
-  <si>
-    <t>Tunga lastbilar,  fjärrtransporter</t>
-  </si>
-  <si>
-    <t>Tunga lastbilar,  Lokal och regional distribution</t>
-  </si>
-  <si>
-    <t>Produktpris, exkl. energiskatt men inkl. koldioxidskatt och moms (EVA)</t>
-  </si>
-  <si>
-    <t>Lätta lastbilar/Personbilar</t>
-  </si>
-  <si>
-    <t>Kostnader för el</t>
-  </si>
-  <si>
-    <t>Tabell 8.3.Kostnader för el (företag)</t>
-  </si>
-  <si>
-    <t>Marin diesel (MDO), Marin gas (MGO)</t>
-  </si>
-  <si>
-    <t>Diesel och Marin gas</t>
-  </si>
-  <si>
-    <t>Bränslekostnader- Sjöfart</t>
-  </si>
-  <si>
-    <t>Tabell 8.2 Bränslekostnader för diesel och marin gas till sjöfart. Produktpris exkl skatter och moms</t>
-  </si>
-  <si>
     <t>Dieselpris ”vid pump”, inkl. alla skatter</t>
   </si>
   <si>
@@ -579,12 +534,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.0000000"/>
-    <numFmt numFmtId="170" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,14 +579,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -758,7 +705,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -911,26 +858,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -998,13 +932,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1017,96 +951,81 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1124,19 +1043,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1154,16 +1073,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1184,139 +1103,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1325,34 +1241,34 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1394,7 +1310,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1415,13 +1331,13 @@
     <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1430,34 +1346,34 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1466,46 +1382,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1517,6 +1415,18 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1527,18 +1437,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1727,7 +1625,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2979964" cy="1296761"/>
@@ -1857,7 +1755,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2893218" cy="1297919"/>
@@ -2010,7 +1908,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2893218" cy="953466"/>
@@ -2137,7 +2035,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2893218" cy="781240"/>
@@ -2286,7 +2184,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2893218" cy="953466"/>
@@ -2435,7 +2333,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2893218" cy="953466"/>
@@ -2596,7 +2494,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2893218" cy="953466"/>
@@ -2714,7 +2612,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2893218" cy="953466"/>
@@ -2834,7 +2732,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2893218" cy="953466"/>
@@ -2954,7 +2852,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>133008</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>10886</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3938249" cy="1470146"/>
@@ -3262,7 +3160,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>111541</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>2720</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3796734" cy="1297919"/>
@@ -3446,7 +3344,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>121104</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2166938" cy="781240"/>
@@ -3605,243 +3503,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3071813" cy="609013"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="textruta 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AE162A3-82CF-564E-B7EF-ECBC4A7E4BE7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3362325" y="4200525"/>
-          <a:ext cx="3071813" cy="609013"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="1"/>
-            <a:t>Noter: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="0"/>
-            <a:t>Öre/kWh, i 2019 års penningvärde.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="sv-SE" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="1"/>
-            <a:t>Källor: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="0"/>
-            <a:t>ASEK</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="0" baseline="0"/>
-            <a:t> underlags-pm 8.0 kap 7-8</a:t>
-          </a:r>
-          <a:endParaRPr lang="sv-SE" sz="1100" b="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>238126</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4126706" cy="781240"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="textruta 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{339A1D17-B6D4-FA4B-9C10-839EC8CB1401}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3362326" y="3044826"/>
-          <a:ext cx="4126706" cy="781240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="1"/>
-            <a:t>Noter: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="0"/>
-            <a:t>Produktpris , kr/ton i 2019</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="0" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="0"/>
-            <a:t>års penningvärde.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="0"/>
-            <a:t> E</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>xkl. skatter och moms</a:t>
-          </a:r>
-          <a:endParaRPr lang="sv-SE" sz="1100" b="0"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="sv-SE" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="1"/>
-            <a:t>Källor: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ASEK</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="sv-SE" sz="1100" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> underlags-pm 8.0 kap 7-8</a:t>
-          </a:r>
-          <a:endParaRPr lang="sv-SE" sz="1100" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>73781</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>2420</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3782786" cy="3881319"/>
@@ -4181,7 +3845,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>98575</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>10885</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3918859" cy="1470146"/>
@@ -4337,7 +4001,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>130628</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>252183</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4539344" cy="3020186"/>
@@ -4675,7 +4339,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>144574</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3358509" cy="2942385"/>
@@ -4945,13 +4609,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>158749</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>3969</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5672,10 +5336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B25EA6-40B5-2949-916C-1AF68C4CF1E5}">
-  <dimension ref="A1:AM234"/>
+  <dimension ref="A1:AM204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A191" sqref="A191"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5696,16 +5360,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B2" s="29"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="195"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="183"/>
       <c r="E2" s="26"/>
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
@@ -5714,8 +5378,8 @@
       <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
-        <v>154</v>
+      <c r="A3" s="55" t="s">
+        <v>139</v>
       </c>
       <c r="B3" s="28">
         <v>2019</v>
@@ -5734,14 +5398,14 @@
       <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="193"/>
-      <c r="B4" s="192" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" s="200" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="201"/>
+      <c r="A4" s="181"/>
+      <c r="B4" s="180" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="184" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="185"/>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
@@ -5750,16 +5414,16 @@
       <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="135">
+      <c r="A5" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="129">
         <v>7.25</v>
       </c>
-      <c r="C5" s="135">
+      <c r="C5" s="129">
         <v>19.03</v>
       </c>
-      <c r="D5" s="134">
+      <c r="D5" s="128">
         <v>19.86</v>
       </c>
       <c r="E5" s="24"/>
@@ -5771,1942 +5435,2805 @@
     </row>
     <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="54">
+        <v>135</v>
+      </c>
+      <c r="B6" s="49">
         <v>11.3025</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="49">
         <v>26.027500000000003</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="51">
         <v>27.064999999999998</v>
       </c>
-      <c r="E6" s="102"/>
+      <c r="E6" s="96"/>
     </row>
     <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="52">
+        <v>134</v>
+      </c>
+      <c r="B7" s="47">
         <v>11.88</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C7" s="47">
         <v>23.660000000000004</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="50">
         <v>24.490000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="B8" s="54">
+        <v>133</v>
+      </c>
+      <c r="B8" s="49">
         <v>4.6300000000000008</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="49">
         <v>4.6300000000000008</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="51">
         <v>4.6300000000000008</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="127">
+      <c r="A9" s="59" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="121">
         <v>14.850000000000001</v>
       </c>
-      <c r="C9" s="127">
+      <c r="C9" s="121">
         <v>29.575000000000003</v>
       </c>
-      <c r="D9" s="126">
+      <c r="D9" s="120">
         <v>30.612500000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="68"/>
+    </row>
     <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="21"/>
+      <c r="A13" s="19" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="191" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" s="28">
+      <c r="A14" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="179" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="179" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="60"/>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="178" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="177" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="186" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="187"/>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="175" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="174" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="188" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="188"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="189"/>
+    </row>
+    <row r="17" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="176" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="171" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="190" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="190"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="191"/>
+    </row>
+    <row r="18" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="175" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="174" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="188" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="188"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="189"/>
+    </row>
+    <row r="19" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="171" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="190" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="191"/>
+    </row>
+    <row r="20" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="175" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="174" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="188" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="188"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="189"/>
+    </row>
+    <row r="21" spans="1:32" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="173" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="172" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="190" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="190"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="191"/>
+    </row>
+    <row r="22" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+    </row>
+    <row r="23" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="80"/>
+      <c r="H23" s="107"/>
+    </row>
+    <row r="24" spans="1:32" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="72"/>
+    </row>
+    <row r="25" spans="1:32" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="115" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="170"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="169"/>
+    </row>
+    <row r="27" spans="1:32" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="168">
         <v>2019</v>
       </c>
-      <c r="C14" s="35">
+      <c r="B27" s="167"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="166"/>
+    </row>
+    <row r="28" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="129">
+        <v>0.9911229510037054</v>
+      </c>
+      <c r="C28" s="129">
+        <v>2.1404537606000775</v>
+      </c>
+      <c r="D28" s="129">
+        <v>2.6850713767422376</v>
+      </c>
+      <c r="E28" s="129">
+        <v>3.4573514339911497</v>
+      </c>
+      <c r="F28" s="129">
+        <v>4.804818506977532</v>
+      </c>
+      <c r="G28" s="129">
+        <v>7.4253801600000005</v>
+      </c>
+      <c r="H28" s="128">
+        <v>6.9378487200000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="49">
+        <v>0.35397783515392256</v>
+      </c>
+      <c r="C29" s="49">
+        <v>1.1283043495531282</v>
+      </c>
+      <c r="D29" s="49">
+        <v>1.3384786891757696</v>
+      </c>
+      <c r="E29" s="49">
+        <v>1.2610460377358488</v>
+      </c>
+      <c r="F29" s="49">
+        <v>1.106180734856008</v>
+      </c>
+      <c r="G29" s="49">
+        <v>1.2514796425024826</v>
+      </c>
+      <c r="H29" s="165">
+        <v>1.2514796425024826</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+    </row>
+    <row r="30" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="47">
+        <v>0.54202856007944378</v>
+      </c>
+      <c r="C30" s="47">
+        <v>0.3429160278053624</v>
+      </c>
+      <c r="D30" s="47">
+        <v>0.67477024826216481</v>
+      </c>
+      <c r="E30" s="47">
+        <v>0.99556266137040716</v>
+      </c>
+      <c r="F30" s="47">
+        <v>1.2499842303872888</v>
+      </c>
+      <c r="G30" s="47">
+        <v>1.4529890764647468</v>
+      </c>
+      <c r="H30" s="50">
+        <v>1.4529890764647468</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="25">
+        <v>1.148250248262165</v>
+      </c>
+      <c r="C31" s="25">
+        <v>1.7920787818603114</v>
+      </c>
+      <c r="D31" s="25">
+        <v>2.1916360476663357</v>
+      </c>
+      <c r="E31" s="25">
+        <v>1.8937644488579941</v>
+      </c>
+      <c r="F31" s="25">
+        <v>2.0719412115193645</v>
+      </c>
+      <c r="G31" s="25">
+        <v>2.153393445878848</v>
+      </c>
+      <c r="H31" s="165">
+        <v>2.2379021095999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="121">
+        <v>3.0353795944992368</v>
+      </c>
+      <c r="C32" s="121">
+        <v>5.4037529198188796</v>
+      </c>
+      <c r="D32" s="121">
+        <v>6.8899563618465081</v>
+      </c>
+      <c r="E32" s="121">
+        <v>7.6077245819553996</v>
+      </c>
+      <c r="F32" s="121">
+        <v>9.2329246837401939</v>
+      </c>
+      <c r="G32" s="121">
+        <v>12.283242324846077</v>
+      </c>
+      <c r="H32" s="120">
+        <v>11.880219548567229</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="164">
         <v>2045</v>
       </c>
-      <c r="D14" s="27">
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="163"/>
+      <c r="H33" s="162"/>
+    </row>
+    <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="129">
+        <v>0.5182130458550509</v>
+      </c>
+      <c r="C34" s="129">
+        <v>1.6654797643246777</v>
+      </c>
+      <c r="D34" s="129">
+        <v>2.0890474085376649</v>
+      </c>
+      <c r="E34" s="129">
+        <v>3.2841590391099444</v>
+      </c>
+      <c r="F34" s="129">
+        <v>4.6496882274310218</v>
+      </c>
+      <c r="G34" s="129">
+        <v>7.0121240296918037</v>
+      </c>
+      <c r="H34" s="128">
+        <v>6.5517259285857925</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="45">
+        <v>2.5624696893505821</v>
+      </c>
+      <c r="C35" s="45">
+        <v>4.9287789235434794</v>
+      </c>
+      <c r="D35" s="45">
+        <v>6.2939323936419349</v>
+      </c>
+      <c r="E35" s="45">
+        <v>7.4345321870741943</v>
+      </c>
+      <c r="F35" s="45">
+        <v>9.077794404193682</v>
+      </c>
+      <c r="G35" s="45">
+        <v>11.86998619453788</v>
+      </c>
+      <c r="H35" s="82">
+        <v>11.494096757153022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="164">
         <v>2065</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="186">
-        <v>5278</v>
-      </c>
-      <c r="C15" s="186">
-        <v>20341</v>
-      </c>
-      <c r="D15" s="186">
-        <v>22306</v>
-      </c>
-      <c r="E15" s="102"/>
-    </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
-        <v>141</v>
-      </c>
-      <c r="B19" s="87">
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="163"/>
+      <c r="H36" s="162"/>
+    </row>
+    <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="129">
+        <v>0.44437346911270431</v>
+      </c>
+      <c r="C37" s="129">
+        <v>1.3345132334103358</v>
+      </c>
+      <c r="D37" s="129">
+        <v>1.6739302278112871</v>
+      </c>
+      <c r="E37" s="129">
+        <v>2.7143722737299765</v>
+      </c>
+      <c r="F37" s="129">
+        <v>3.770580985673242</v>
+      </c>
+      <c r="G37" s="129">
+        <v>5.6867665573770498</v>
+      </c>
+      <c r="H37" s="128">
+        <v>5.3133880327868859</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="45">
+        <v>2.4886301126082357</v>
+      </c>
+      <c r="C38" s="45">
+        <v>4.5978123926291374</v>
+      </c>
+      <c r="D38" s="45">
+        <v>5.8788152129155566</v>
+      </c>
+      <c r="E38" s="45">
+        <v>6.8647454216942263</v>
+      </c>
+      <c r="F38" s="45">
+        <v>8.1986871624359026</v>
+      </c>
+      <c r="G38" s="49">
+        <v>10.544628722223127</v>
+      </c>
+      <c r="H38" s="82">
+        <v>10.255758861354115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="114"/>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="113"/>
+    </row>
+    <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="119">
+        <v>369</v>
+      </c>
+      <c r="C40" s="119">
+        <v>340.95600000000002</v>
+      </c>
+      <c r="D40" s="119">
+        <v>340.95600000000002</v>
+      </c>
+      <c r="E40" s="119">
+        <v>340.95600000000002</v>
+      </c>
+      <c r="F40" s="119">
+        <v>369</v>
+      </c>
+      <c r="G40" s="119">
+        <v>369</v>
+      </c>
+      <c r="H40" s="118">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="117">
+        <v>369</v>
+      </c>
+      <c r="C41" s="117">
+        <v>340.95600000000002</v>
+      </c>
+      <c r="D41" s="117">
+        <v>340.95600000000002</v>
+      </c>
+      <c r="E41" s="117">
+        <v>340.95600000000002</v>
+      </c>
+      <c r="F41" s="117">
+        <v>369</v>
+      </c>
+      <c r="G41" s="117">
+        <v>369</v>
+      </c>
+      <c r="H41" s="116">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="113"/>
+    </row>
+    <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="53">
+        <v>18.321118421052628</v>
+      </c>
+      <c r="C43" s="53">
+        <v>30.80713346573982</v>
+      </c>
+      <c r="D43" s="53">
+        <v>38.661016683217483</v>
+      </c>
+      <c r="E43" s="53">
+        <v>33.043198808341607</v>
+      </c>
+      <c r="F43" s="53">
+        <v>34.149379543197618</v>
+      </c>
+      <c r="G43" s="53">
+        <v>35.84746772591857</v>
+      </c>
+      <c r="H43" s="52">
+        <v>35.84746772591857</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="47">
+        <v>2.0164752979145977</v>
+      </c>
+      <c r="C44" s="47">
+        <v>5.5961683376365432</v>
+      </c>
+      <c r="D44" s="47">
+        <v>6.8395154836146963</v>
+      </c>
+      <c r="E44" s="47">
+        <v>8.4294132512413107</v>
+      </c>
+      <c r="F44" s="47">
+        <v>8.4294132512413107</v>
+      </c>
+      <c r="G44" s="47">
+        <v>8.4294132512413107</v>
+      </c>
+      <c r="H44" s="50">
+        <v>8.4294132512413107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="49">
+        <v>12.81529294935452</v>
+      </c>
+      <c r="C45" s="49">
+        <v>17.280759682224431</v>
+      </c>
+      <c r="D45" s="49">
+        <v>28.178177755710028</v>
+      </c>
+      <c r="E45" s="49">
+        <v>28.986190543744804</v>
+      </c>
+      <c r="F45" s="49">
+        <v>31.71338589060252</v>
+      </c>
+      <c r="G45" s="49">
+        <v>32.960103763451762</v>
+      </c>
+      <c r="H45" s="51">
+        <v>37.600004081632648</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="47">
+        <v>4.6378931852035752</v>
+      </c>
+      <c r="C46" s="47">
+        <v>14.012544458788481</v>
+      </c>
+      <c r="D46" s="47">
+        <v>22.107021986097319</v>
+      </c>
+      <c r="E46" s="47">
+        <v>20.227304865938432</v>
+      </c>
+      <c r="F46" s="47">
+        <v>22.137837020854022</v>
+      </c>
+      <c r="G46" s="47">
+        <v>23.014498510427011</v>
+      </c>
+      <c r="H46" s="50">
+        <v>26.236528301886789</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="45">
+        <v>37.790779853525322</v>
+      </c>
+      <c r="C47" s="45">
+        <v>67.696605944389276</v>
+      </c>
+      <c r="D47" s="45">
+        <v>95.785731908639534</v>
+      </c>
+      <c r="E47" s="45">
+        <v>90.686107469266148</v>
+      </c>
+      <c r="F47" s="45">
+        <v>96.430015705895471</v>
+      </c>
+      <c r="G47" s="45">
+        <v>100.25148325103865</v>
+      </c>
+      <c r="H47" s="82">
+        <v>108.11341336067932</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="24"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
+    </row>
+    <row r="49" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="24"/>
+    </row>
+    <row r="50" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="H51" s="65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="64">
+        <v>301203.5749751738</v>
+      </c>
+      <c r="C52" s="64">
+        <v>1021334.6573982126</v>
+      </c>
+      <c r="D52" s="64">
+        <v>1635408.1429990069</v>
+      </c>
+      <c r="E52" s="64">
+        <v>2599471.6981132077</v>
+      </c>
+      <c r="F52" s="64">
+        <v>2844464.746772592</v>
+      </c>
+      <c r="G52" s="64">
+        <v>2955825.2234359486</v>
+      </c>
+      <c r="H52" s="57">
+        <v>3070667</v>
+      </c>
+      <c r="I52" s="96"/>
+    </row>
+    <row r="53" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="8">
+        <v>55149.950347567035</v>
+      </c>
+      <c r="C53" s="8">
+        <v>99694.141012909633</v>
+      </c>
+      <c r="D53" s="8">
+        <v>132571.99602780538</v>
+      </c>
+      <c r="E53" s="8">
+        <v>232266.137040715</v>
+      </c>
+      <c r="F53" s="8">
+        <v>254538.2323733863</v>
+      </c>
+      <c r="G53" s="8">
+        <v>264083.41608738829</v>
+      </c>
+      <c r="H53" s="8">
+        <v>273289.36300000001</v>
+      </c>
+      <c r="I53" s="161"/>
+      <c r="J53" s="80"/>
+    </row>
+    <row r="54" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="12">
+        <v>50000</v>
+      </c>
+      <c r="C54" s="12">
+        <v>45000</v>
+      </c>
+      <c r="D54" s="12">
+        <v>60000</v>
+      </c>
+      <c r="E54" s="12">
+        <v>125000</v>
+      </c>
+      <c r="F54" s="12">
+        <v>125000</v>
+      </c>
+      <c r="G54" s="12">
+        <v>125000</v>
+      </c>
+      <c r="H54" s="57">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="8">
+        <v>1920</v>
+      </c>
+      <c r="C55" s="8">
+        <v>2000</v>
+      </c>
+      <c r="D55" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E55" s="8">
+        <v>3500</v>
+      </c>
+      <c r="F55" s="8">
+        <v>3500</v>
+      </c>
+      <c r="G55" s="8">
+        <v>3500</v>
+      </c>
+      <c r="H55" s="8">
+        <v>3500</v>
+      </c>
+      <c r="I55" s="96"/>
+    </row>
+    <row r="56" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="12">
+        <v>3</v>
+      </c>
+      <c r="C56" s="12">
+        <v>8</v>
+      </c>
+      <c r="D56" s="12">
+        <v>8</v>
+      </c>
+      <c r="E56" s="12">
+        <v>7</v>
+      </c>
+      <c r="F56" s="12">
+        <v>7</v>
+      </c>
+      <c r="G56" s="12">
+        <v>7</v>
+      </c>
+      <c r="H56" s="11">
+        <v>7</v>
+      </c>
+      <c r="I56" s="96"/>
+    </row>
+    <row r="57" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="160" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="160" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="160" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="160" t="s">
+        <v>94</v>
+      </c>
+      <c r="F57" s="160" t="s">
+        <v>94</v>
+      </c>
+      <c r="G57" s="160" t="s">
+        <v>94</v>
+      </c>
+      <c r="H57" s="160" t="s">
+        <v>94</v>
+      </c>
+      <c r="I57" s="96"/>
+    </row>
+    <row r="58" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="159" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" s="159" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="159" t="s">
+        <v>92</v>
+      </c>
+      <c r="E58" s="159" t="s">
+        <v>92</v>
+      </c>
+      <c r="F58" s="159" t="s">
+        <v>92</v>
+      </c>
+      <c r="G58" s="159" t="s">
+        <v>92</v>
+      </c>
+      <c r="H58" s="159" t="s">
+        <v>92</v>
+      </c>
+      <c r="I58" s="96"/>
+    </row>
+    <row r="59" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B59" s="8">
+        <v>2</v>
+      </c>
+      <c r="C59" s="8">
+        <v>2</v>
+      </c>
+      <c r="D59" s="8">
+        <v>3</v>
+      </c>
+      <c r="E59" s="8">
+        <v>7</v>
+      </c>
+      <c r="F59" s="8">
+        <v>7</v>
+      </c>
+      <c r="G59" s="8">
+        <v>9</v>
+      </c>
+      <c r="H59" s="7">
+        <v>9</v>
+      </c>
+      <c r="I59" s="96"/>
+    </row>
+    <row r="60" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="12">
+        <v>4</v>
+      </c>
+      <c r="C60" s="12">
+        <v>6</v>
+      </c>
+      <c r="D60" s="12">
+        <v>10</v>
+      </c>
+      <c r="E60" s="12">
+        <v>18</v>
+      </c>
+      <c r="F60" s="12">
+        <v>26</v>
+      </c>
+      <c r="G60" s="12">
+        <v>32</v>
+      </c>
+      <c r="H60" s="11">
+        <v>32</v>
+      </c>
+      <c r="I60" s="96"/>
+    </row>
+    <row r="61" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="156">
+        <v>8.3427857828594729E-2</v>
+      </c>
+      <c r="C61" s="156">
+        <v>0.180172875471387</v>
+      </c>
+      <c r="D61" s="156">
+        <v>0.22601610915338699</v>
+      </c>
+      <c r="E61" s="156">
+        <v>0.29102284797905298</v>
+      </c>
+      <c r="F61" s="156">
+        <v>0.40444600227083599</v>
+      </c>
+      <c r="G61" s="156">
+        <v>0.62503200000000003</v>
+      </c>
+      <c r="H61" s="155">
+        <v>0.58399400000000001</v>
+      </c>
+      <c r="I61" s="96"/>
+    </row>
+    <row r="62" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="158">
+        <v>7.6599491533628078E-2</v>
+      </c>
+      <c r="C62" s="158">
+        <v>0.14783315111355244</v>
+      </c>
+      <c r="D62" s="158">
+        <v>0.18542566233350524</v>
+      </c>
+      <c r="E62" s="158">
+        <v>0.24676037619277533</v>
+      </c>
+      <c r="F62" s="158">
+        <v>0.34277906221444554</v>
+      </c>
+      <c r="G62" s="158">
+        <v>0.51687527868852456</v>
+      </c>
+      <c r="H62" s="157">
+        <v>0.48293857194899814</v>
+      </c>
+      <c r="I62" s="96"/>
+    </row>
+    <row r="63" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" s="156">
+        <v>0.298237227592419</v>
+      </c>
+      <c r="C63" s="156">
+        <v>0.90169813068265936</v>
+      </c>
+      <c r="D63" s="156">
+        <v>1.1310339377103291</v>
+      </c>
+      <c r="E63" s="156">
+        <v>1.4672282560702574</v>
+      </c>
+      <c r="F63" s="156">
+        <v>2.0381518841476982</v>
+      </c>
+      <c r="G63" s="156">
+        <v>3.0739278688524592</v>
+      </c>
+      <c r="H63" s="155">
+        <v>2.8721016393442627</v>
+      </c>
+      <c r="I63" s="96"/>
+    </row>
+    <row r="64" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="154">
+        <v>0.941915514885167</v>
+      </c>
+      <c r="C64" s="154">
+        <v>0.84</v>
+      </c>
+      <c r="D64" s="154">
+        <v>0.84</v>
+      </c>
+      <c r="E64" s="154">
+        <v>0.81</v>
+      </c>
+      <c r="F64" s="154">
+        <v>0.79</v>
+      </c>
+      <c r="G64" s="154">
+        <v>0.79</v>
+      </c>
+      <c r="H64" s="153">
+        <v>0.79</v>
+      </c>
+      <c r="I64" s="96"/>
+    </row>
+    <row r="65" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="152">
+        <v>1</v>
+      </c>
+      <c r="C65" s="152">
+        <v>1</v>
+      </c>
+      <c r="D65" s="152">
+        <v>1</v>
+      </c>
+      <c r="E65" s="152">
+        <v>1</v>
+      </c>
+      <c r="F65" s="152">
+        <v>1</v>
+      </c>
+      <c r="G65" s="152">
+        <v>1</v>
+      </c>
+      <c r="H65" s="151">
+        <v>1</v>
+      </c>
+      <c r="I65" s="96"/>
+    </row>
+    <row r="66" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="150" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="E69" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="F69" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="G69" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="H69" s="65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="64">
+        <v>35176.547368421045</v>
+      </c>
+      <c r="C70" s="64">
+        <v>61614.266931479644</v>
+      </c>
+      <c r="D70" s="64">
+        <v>77322.03336643496</v>
+      </c>
+      <c r="E70" s="64">
+        <v>115651.19582919563</v>
+      </c>
+      <c r="F70" s="64">
+        <v>119522.82840119165</v>
+      </c>
+      <c r="G70" s="64">
+        <v>125466.137040715</v>
+      </c>
+      <c r="H70" s="63">
+        <v>125466.137040715</v>
+      </c>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+    </row>
+    <row r="71" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="42">
+        <v>3871.6325719960273</v>
+      </c>
+      <c r="C71" s="42">
+        <v>11192.336675273087</v>
+      </c>
+      <c r="D71" s="42">
+        <v>13679.030967229393</v>
+      </c>
+      <c r="E71" s="42">
+        <v>29502.946379344587</v>
+      </c>
+      <c r="F71" s="42">
+        <v>29502.946379344587</v>
+      </c>
+      <c r="G71" s="42">
+        <v>29502.946379344587</v>
+      </c>
+      <c r="H71" s="31">
+        <v>29502.946379344587</v>
+      </c>
+      <c r="I71" s="96"/>
+    </row>
+    <row r="72" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="149">
+        <v>24605.362462760677</v>
+      </c>
+      <c r="C72" s="149">
+        <v>34561.519364448861</v>
+      </c>
+      <c r="D72" s="149">
+        <v>56356.355511420057</v>
+      </c>
+      <c r="E72" s="149">
+        <v>101451.66690310682</v>
+      </c>
+      <c r="F72" s="149">
+        <v>110996.85061710882</v>
+      </c>
+      <c r="G72" s="149">
+        <v>115360.36317208117</v>
+      </c>
+      <c r="H72" s="149">
+        <v>131600.01428571428</v>
+      </c>
+      <c r="I72" s="96"/>
+    </row>
+    <row r="73" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73" s="42">
+        <v>8904.7549155908637</v>
+      </c>
+      <c r="C73" s="42">
+        <v>28025.088917576963</v>
+      </c>
+      <c r="D73" s="42">
+        <v>44214.043972194639</v>
+      </c>
+      <c r="E73" s="42">
+        <v>70795.567030784514</v>
+      </c>
+      <c r="F73" s="42">
+        <v>77482.429572989073</v>
+      </c>
+      <c r="G73" s="42">
+        <v>80550.744786494542</v>
+      </c>
+      <c r="H73" s="31">
+        <v>91827.849056603765</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="62">
+        <v>72558.297318768615</v>
+      </c>
+      <c r="C74" s="62">
+        <v>135393.21188877855</v>
+      </c>
+      <c r="D74" s="62">
+        <v>191571.46381727906</v>
+      </c>
+      <c r="E74" s="62">
+        <v>317401.37614243152</v>
+      </c>
+      <c r="F74" s="62">
+        <v>337505.05497063411</v>
+      </c>
+      <c r="G74" s="62">
+        <v>350880.1913786353</v>
+      </c>
+      <c r="H74" s="62">
+        <v>378396.94676237763</v>
+      </c>
+      <c r="I74" s="96"/>
+    </row>
+    <row r="75" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G75" s="79"/>
+      <c r="H75" s="79"/>
+    </row>
+    <row r="76" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B78" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C78" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="E78" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="F78" s="65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" s="145">
+        <v>10.50483351235231</v>
+      </c>
+      <c r="C79" s="145">
+        <v>10.50483351235231</v>
+      </c>
+      <c r="D79" s="145">
+        <v>10.50483351235231</v>
+      </c>
+      <c r="E79" s="145">
+        <v>10.50483351235231</v>
+      </c>
+      <c r="F79" s="148">
+        <v>10.50483351235231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" s="146">
+        <v>16.807733619763695</v>
+      </c>
+      <c r="E80" s="146">
+        <v>16.807733619763695</v>
+      </c>
+      <c r="F80" s="78">
+        <v>16.807733619763695</v>
+      </c>
+    </row>
+    <row r="81" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="145">
+        <v>109.56541353383459</v>
+      </c>
+      <c r="C81" s="145">
+        <v>54.782706766917293</v>
+      </c>
+      <c r="D81" s="145">
+        <v>43.826165413533836</v>
+      </c>
+      <c r="E81" s="145">
+        <v>21.913082706766918</v>
+      </c>
+      <c r="F81" s="77">
+        <v>21.913082706766918</v>
+      </c>
+    </row>
+    <row r="82" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" s="146" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="146">
+        <v>9.4543501611170786</v>
+      </c>
+      <c r="F82" s="78">
+        <v>9.4543501611170786</v>
+      </c>
+    </row>
+    <row r="83" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83" s="147">
+        <v>70.382384532760469</v>
+      </c>
+      <c r="C83" s="147">
+        <v>70.382384532760469</v>
+      </c>
+      <c r="D83" s="147">
+        <v>70.382384532760469</v>
+      </c>
+      <c r="E83" s="147">
+        <v>70.382384532760469</v>
+      </c>
+      <c r="F83" s="147">
+        <v>70.382384532760469</v>
+      </c>
+      <c r="G83" s="96"/>
+    </row>
+    <row r="84" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="1:39" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" spans="1:39" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E87" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" s="146">
+        <v>1</v>
+      </c>
+      <c r="E89" s="146">
+        <v>1.5</v>
+      </c>
+      <c r="F89" s="78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="145">
+        <v>2</v>
+      </c>
+      <c r="C90" s="145">
+        <v>2</v>
+      </c>
+      <c r="D90" s="145">
+        <v>2</v>
+      </c>
+      <c r="E90" s="145">
+        <v>1</v>
+      </c>
+      <c r="F90" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="F91" s="76">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
+      <c r="AA93" s="1"/>
+      <c r="AB93" s="1"/>
+      <c r="AC93" s="1"/>
+      <c r="AD93" s="1"/>
+      <c r="AE93" s="1"/>
+      <c r="AF93" s="1"/>
+      <c r="AG93" s="1"/>
+      <c r="AH93" s="1"/>
+      <c r="AI93" s="1"/>
+      <c r="AJ93" s="1"/>
+      <c r="AK93" s="1"/>
+      <c r="AL93" s="1"/>
+      <c r="AM93" s="1"/>
+    </row>
+    <row r="94" spans="1:39" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+    </row>
+    <row r="95" spans="1:39" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+    </row>
+    <row r="96" spans="1:39" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B96" s="144" t="s">
+        <v>58</v>
+      </c>
+      <c r="C96" s="143" t="s">
+        <v>55</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+    </row>
+    <row r="97" spans="1:39" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B97" s="142" t="s">
+        <v>56</v>
+      </c>
+      <c r="C97" s="141" t="s">
+        <v>55</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+    </row>
+    <row r="98" spans="1:39" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B98" s="140" t="s">
+        <v>53</v>
+      </c>
+      <c r="C98" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" spans="1:39" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B99" s="138" t="s">
+        <v>50</v>
+      </c>
+      <c r="C99" s="137" t="s">
+        <v>49</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+    </row>
+    <row r="100" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="136"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="136"/>
+    </row>
+    <row r="101" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="1"/>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1"/>
+      <c r="AA101" s="1"/>
+      <c r="AB101" s="1"/>
+      <c r="AC101" s="1"/>
+      <c r="AD101" s="1"/>
+      <c r="AE101" s="1"/>
+      <c r="AF101" s="1"/>
+      <c r="AG101" s="1"/>
+      <c r="AH101" s="1"/>
+      <c r="AI101" s="1"/>
+      <c r="AJ101" s="1"/>
+      <c r="AK101" s="1"/>
+      <c r="AL101" s="1"/>
+      <c r="AM101" s="1"/>
+    </row>
+    <row r="102" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B102" s="112"/>
+      <c r="C102" s="112"/>
+      <c r="D102" s="112"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="1"/>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1"/>
+      <c r="AA102" s="1"/>
+      <c r="AB102" s="1"/>
+      <c r="AC102" s="1"/>
+      <c r="AD102" s="1"/>
+      <c r="AE102" s="1"/>
+      <c r="AF102" s="1"/>
+      <c r="AG102" s="1"/>
+      <c r="AH102" s="1"/>
+      <c r="AI102" s="1"/>
+      <c r="AJ102" s="1"/>
+      <c r="AK102" s="1"/>
+      <c r="AL102" s="1"/>
+      <c r="AM102" s="1"/>
+    </row>
+    <row r="103" spans="1:39" s="4" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="B103" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="D103" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1"/>
+      <c r="T103" s="1"/>
+      <c r="U103" s="1"/>
+      <c r="V103" s="1"/>
+      <c r="W103" s="1"/>
+      <c r="X103" s="1"/>
+      <c r="Y103" s="1"/>
+      <c r="Z103" s="1"/>
+      <c r="AA103" s="1"/>
+      <c r="AB103" s="1"/>
+      <c r="AC103" s="1"/>
+      <c r="AD103" s="1"/>
+      <c r="AE103" s="1"/>
+      <c r="AF103" s="1"/>
+      <c r="AG103" s="1"/>
+      <c r="AH103" s="1"/>
+      <c r="AI103" s="1"/>
+      <c r="AJ103" s="1"/>
+      <c r="AK103" s="1"/>
+      <c r="AL103" s="1"/>
+      <c r="AM103" s="1"/>
+    </row>
+    <row r="104" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="135" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104" s="134"/>
+      <c r="C104" s="134"/>
+      <c r="D104" s="133"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="1"/>
+      <c r="W104" s="1"/>
+      <c r="X104" s="1"/>
+      <c r="Y104" s="1"/>
+      <c r="Z104" s="1"/>
+      <c r="AA104" s="1"/>
+      <c r="AB104" s="1"/>
+      <c r="AC104" s="1"/>
+      <c r="AD104" s="1"/>
+      <c r="AE104" s="1"/>
+      <c r="AF104" s="1"/>
+      <c r="AG104" s="1"/>
+      <c r="AH104" s="1"/>
+      <c r="AI104" s="1"/>
+      <c r="AJ104" s="1"/>
+      <c r="AK104" s="1"/>
+      <c r="AL104" s="1"/>
+      <c r="AM104" s="1"/>
+    </row>
+    <row r="105" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="132">
         <v>2019</v>
       </c>
-      <c r="C19" s="22">
+      <c r="B105" s="131"/>
+      <c r="C105" s="131"/>
+      <c r="D105" s="130"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1"/>
+      <c r="T105" s="1"/>
+      <c r="U105" s="1"/>
+      <c r="V105" s="1"/>
+      <c r="W105" s="1"/>
+      <c r="X105" s="1"/>
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="1"/>
+      <c r="AA105" s="1"/>
+      <c r="AB105" s="1"/>
+      <c r="AC105" s="1"/>
+      <c r="AD105" s="1"/>
+      <c r="AE105" s="1"/>
+      <c r="AF105" s="1"/>
+      <c r="AG105" s="1"/>
+      <c r="AH105" s="1"/>
+      <c r="AI105" s="1"/>
+      <c r="AJ105" s="1"/>
+      <c r="AK105" s="1"/>
+      <c r="AL105" s="1"/>
+      <c r="AM105" s="1"/>
+    </row>
+    <row r="106" spans="1:39" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B106" s="129">
+        <v>3.6712243511590943</v>
+      </c>
+      <c r="C106" s="129">
+        <v>5.5529607681126505</v>
+      </c>
+      <c r="D106" s="128">
+        <v>1.3002064786870831</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1"/>
+      <c r="T106" s="1"/>
+      <c r="U106" s="1"/>
+      <c r="V106" s="1"/>
+      <c r="W106" s="1"/>
+      <c r="X106" s="1"/>
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1"/>
+      <c r="AA106" s="1"/>
+      <c r="AB106" s="1"/>
+      <c r="AC106" s="1"/>
+      <c r="AD106" s="1"/>
+      <c r="AE106" s="1"/>
+      <c r="AF106" s="1"/>
+      <c r="AG106" s="1"/>
+      <c r="AH106" s="1"/>
+      <c r="AI106" s="1"/>
+      <c r="AJ106" s="1"/>
+      <c r="AK106" s="1"/>
+      <c r="AL106" s="1"/>
+      <c r="AM106" s="1"/>
+    </row>
+    <row r="107" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B107" s="49">
+        <v>0.6103894453676042</v>
+      </c>
+      <c r="C107" s="49">
+        <v>0.92325293122612029</v>
+      </c>
+      <c r="D107" s="51">
+        <v>0.19939258021034142</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1"/>
+      <c r="T107" s="1"/>
+      <c r="U107" s="1"/>
+      <c r="V107" s="1"/>
+      <c r="W107" s="1"/>
+      <c r="X107" s="1"/>
+      <c r="Y107" s="1"/>
+      <c r="Z107" s="1"/>
+      <c r="AA107" s="1"/>
+      <c r="AB107" s="1"/>
+      <c r="AC107" s="1"/>
+      <c r="AD107" s="1"/>
+      <c r="AE107" s="1"/>
+      <c r="AF107" s="1"/>
+      <c r="AG107" s="1"/>
+      <c r="AH107" s="1"/>
+      <c r="AI107" s="1"/>
+      <c r="AJ107" s="1"/>
+      <c r="AK107" s="1"/>
+      <c r="AL107" s="1"/>
+      <c r="AM107" s="1"/>
+    </row>
+    <row r="108" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B108" s="47">
+        <v>1.5099378092591853</v>
+      </c>
+      <c r="C108" s="47">
+        <v>1.3684606118133067</v>
+      </c>
+      <c r="D108" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" s="127"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1"/>
+      <c r="T108" s="1"/>
+      <c r="U108" s="1"/>
+      <c r="V108" s="1"/>
+      <c r="W108" s="1"/>
+      <c r="X108" s="1"/>
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="1"/>
+      <c r="AA108" s="1"/>
+      <c r="AB108" s="1"/>
+      <c r="AC108" s="1"/>
+      <c r="AD108" s="1"/>
+      <c r="AE108" s="1"/>
+      <c r="AF108" s="1"/>
+      <c r="AG108" s="1"/>
+      <c r="AH108" s="1"/>
+      <c r="AI108" s="1"/>
+      <c r="AJ108" s="1"/>
+      <c r="AK108" s="1"/>
+      <c r="AL108" s="1"/>
+      <c r="AM108" s="1"/>
+    </row>
+    <row r="109" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B109" s="49">
+        <v>0.9650431348957299</v>
+      </c>
+      <c r="C109" s="49">
+        <v>1.4632249030069508</v>
+      </c>
+      <c r="D109" s="51">
+        <v>0.14842666666666665</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" s="127"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1"/>
+      <c r="T109" s="1"/>
+      <c r="U109" s="1"/>
+      <c r="V109" s="1"/>
+      <c r="W109" s="1"/>
+      <c r="X109" s="1"/>
+      <c r="Y109" s="1"/>
+      <c r="Z109" s="1"/>
+      <c r="AA109" s="1"/>
+      <c r="AB109" s="1"/>
+      <c r="AC109" s="1"/>
+      <c r="AD109" s="1"/>
+      <c r="AE109" s="1"/>
+      <c r="AF109" s="1"/>
+      <c r="AG109" s="1"/>
+      <c r="AH109" s="1"/>
+      <c r="AI109" s="1"/>
+      <c r="AJ109" s="1"/>
+      <c r="AK109" s="1"/>
+      <c r="AL109" s="1"/>
+      <c r="AM109" s="1"/>
+    </row>
+    <row r="110" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B110" s="47">
+        <v>2.3340973357000991</v>
+      </c>
+      <c r="C110" s="47">
+        <v>2.4725538446871891</v>
+      </c>
+      <c r="D110" s="50">
+        <v>2.3668520357497522</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" s="126"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+      <c r="W110" s="1"/>
+      <c r="X110" s="1"/>
+      <c r="Y110" s="1"/>
+      <c r="Z110" s="1"/>
+      <c r="AA110" s="1"/>
+      <c r="AB110" s="1"/>
+      <c r="AC110" s="1"/>
+      <c r="AD110" s="1"/>
+      <c r="AE110" s="1"/>
+      <c r="AF110" s="1"/>
+      <c r="AG110" s="1"/>
+      <c r="AH110" s="1"/>
+      <c r="AI110" s="1"/>
+      <c r="AJ110" s="1"/>
+      <c r="AK110" s="1"/>
+      <c r="AL110" s="1"/>
+      <c r="AM110" s="1"/>
+    </row>
+    <row r="111" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B111" s="45">
+        <v>8.4803026310141085</v>
+      </c>
+      <c r="C111" s="45">
+        <v>10.857200127620096</v>
+      </c>
+      <c r="D111" s="82">
+        <v>3.8154851811035018</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+      <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
+      <c r="Z111" s="1"/>
+      <c r="AA111" s="1"/>
+      <c r="AB111" s="1"/>
+      <c r="AC111" s="1"/>
+      <c r="AD111" s="1"/>
+      <c r="AE111" s="1"/>
+      <c r="AF111" s="1"/>
+      <c r="AG111" s="1"/>
+      <c r="AH111" s="1"/>
+      <c r="AI111" s="1"/>
+      <c r="AJ111" s="1"/>
+      <c r="AK111" s="1"/>
+      <c r="AL111" s="1"/>
+      <c r="AM111" s="1"/>
+    </row>
+    <row r="112" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="125">
         <v>2045</v>
       </c>
-      <c r="D19" s="21">
+      <c r="B112" s="81"/>
+      <c r="C112" s="81"/>
+      <c r="D112" s="71"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+      <c r="X112" s="1"/>
+      <c r="Y112" s="1"/>
+      <c r="Z112" s="1"/>
+      <c r="AA112" s="1"/>
+      <c r="AB112" s="1"/>
+      <c r="AC112" s="1"/>
+      <c r="AD112" s="1"/>
+      <c r="AE112" s="1"/>
+      <c r="AF112" s="1"/>
+      <c r="AG112" s="1"/>
+      <c r="AH112" s="1"/>
+      <c r="AI112" s="1"/>
+      <c r="AJ112" s="1"/>
+      <c r="AK112" s="1"/>
+      <c r="AL112" s="1"/>
+      <c r="AM112" s="1"/>
+    </row>
+    <row r="113" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113" s="47">
+        <v>3.287769869731529</v>
+      </c>
+      <c r="C113" s="47">
+        <v>5.3617563043325749</v>
+      </c>
+      <c r="D113" s="50">
+        <v>0.63578337860003642</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
+      <c r="U113" s="1"/>
+      <c r="V113" s="1"/>
+      <c r="W113" s="1"/>
+      <c r="X113" s="1"/>
+      <c r="Y113" s="1"/>
+      <c r="Z113" s="1"/>
+      <c r="AA113" s="1"/>
+      <c r="AB113" s="1"/>
+      <c r="AC113" s="1"/>
+      <c r="AD113" s="1"/>
+      <c r="AE113" s="1"/>
+      <c r="AF113" s="1"/>
+      <c r="AG113" s="1"/>
+      <c r="AH113" s="1"/>
+      <c r="AI113" s="1"/>
+      <c r="AJ113" s="1"/>
+      <c r="AK113" s="1"/>
+      <c r="AL113" s="1"/>
+      <c r="AM113" s="1"/>
+    </row>
+    <row r="114" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B114" s="49">
+        <v>0.46075769202741756</v>
+      </c>
+      <c r="C114" s="49">
+        <v>0.70229780389782737</v>
+      </c>
+      <c r="D114" s="51">
+        <v>0.10910441496382811</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
+      <c r="U114" s="1"/>
+      <c r="V114" s="1"/>
+      <c r="W114" s="1"/>
+      <c r="X114" s="1"/>
+      <c r="Y114" s="1"/>
+      <c r="Z114" s="1"/>
+      <c r="AA114" s="1"/>
+      <c r="AB114" s="1"/>
+      <c r="AC114" s="1"/>
+      <c r="AD114" s="1"/>
+      <c r="AE114" s="1"/>
+      <c r="AF114" s="1"/>
+      <c r="AG114" s="1"/>
+      <c r="AH114" s="1"/>
+      <c r="AI114" s="1"/>
+      <c r="AJ114" s="1"/>
+      <c r="AK114" s="1"/>
+      <c r="AL114" s="1"/>
+      <c r="AM114" s="1"/>
+    </row>
+    <row r="115" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B115" s="121">
+        <v>8.0968481495865436</v>
+      </c>
+      <c r="C115" s="121">
+        <v>10.665995663840022</v>
+      </c>
+      <c r="D115" s="120">
+        <v>3.1510620810164554</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
+      <c r="U115" s="1"/>
+      <c r="V115" s="1"/>
+      <c r="W115" s="1"/>
+      <c r="X115" s="1"/>
+      <c r="Y115" s="1"/>
+      <c r="Z115" s="1"/>
+      <c r="AA115" s="1"/>
+      <c r="AB115" s="1"/>
+      <c r="AC115" s="1"/>
+      <c r="AD115" s="1"/>
+      <c r="AE115" s="1"/>
+      <c r="AF115" s="1"/>
+      <c r="AG115" s="1"/>
+      <c r="AH115" s="1"/>
+      <c r="AI115" s="1"/>
+      <c r="AJ115" s="1"/>
+      <c r="AK115" s="1"/>
+      <c r="AL115" s="1"/>
+      <c r="AM115" s="1"/>
+    </row>
+    <row r="116" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="124">
         <v>2065</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="187" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="190"/>
-      <c r="C20" s="190"/>
-      <c r="D20" s="189"/>
-    </row>
-    <row r="21" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="37">
-        <v>77</v>
-      </c>
-      <c r="C21" s="37">
-        <v>112</v>
-      </c>
-      <c r="D21" s="31">
-        <v>114</v>
-      </c>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" s="39">
-        <v>96.25</v>
-      </c>
-      <c r="C22" s="39">
-        <v>140</v>
-      </c>
-      <c r="D22" s="30">
-        <v>142.5</v>
-      </c>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="37">
+      <c r="B116" s="123"/>
+      <c r="C116" s="123"/>
+      <c r="D116" s="122"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
+      <c r="V116" s="1"/>
+      <c r="W116" s="1"/>
+      <c r="X116" s="1"/>
+      <c r="Y116" s="1"/>
+      <c r="Z116" s="1"/>
+      <c r="AA116" s="1"/>
+      <c r="AB116" s="1"/>
+      <c r="AC116" s="1"/>
+      <c r="AD116" s="1"/>
+      <c r="AE116" s="1"/>
+      <c r="AF116" s="1"/>
+      <c r="AG116" s="1"/>
+      <c r="AH116" s="1"/>
+      <c r="AI116" s="1"/>
+      <c r="AJ116" s="1"/>
+      <c r="AK116" s="1"/>
+      <c r="AL116" s="1"/>
+      <c r="AM116" s="1"/>
+    </row>
+    <row r="117" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B117" s="47">
+        <v>2.6945706427113438</v>
+      </c>
+      <c r="C117" s="47">
+        <v>4.3579209860324069</v>
+      </c>
+      <c r="D117" s="50">
+        <v>0.53769189762637215</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="1"/>
+      <c r="W117" s="1"/>
+      <c r="X117" s="1"/>
+      <c r="Y117" s="1"/>
+      <c r="Z117" s="1"/>
+      <c r="AA117" s="1"/>
+      <c r="AB117" s="1"/>
+      <c r="AC117" s="1"/>
+      <c r="AD117" s="1"/>
+      <c r="AE117" s="1"/>
+      <c r="AF117" s="1"/>
+      <c r="AG117" s="1"/>
+      <c r="AH117" s="1"/>
+      <c r="AI117" s="1"/>
+      <c r="AJ117" s="1"/>
+      <c r="AK117" s="1"/>
+      <c r="AL117" s="1"/>
+      <c r="AM117" s="1"/>
+    </row>
+    <row r="118" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B118" s="49">
+        <v>0.44960650323766638</v>
+      </c>
+      <c r="C118" s="49">
+        <v>0.68138143627935766</v>
+      </c>
+      <c r="D118" s="51">
+        <v>0.10438302965734664</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="1"/>
+      <c r="W118" s="1"/>
+      <c r="X118" s="1"/>
+      <c r="Y118" s="1"/>
+      <c r="Z118" s="1"/>
+      <c r="AA118" s="1"/>
+      <c r="AB118" s="1"/>
+      <c r="AC118" s="1"/>
+      <c r="AD118" s="1"/>
+      <c r="AE118" s="1"/>
+      <c r="AF118" s="1"/>
+      <c r="AG118" s="1"/>
+      <c r="AH118" s="1"/>
+      <c r="AI118" s="1"/>
+      <c r="AJ118" s="1"/>
+      <c r="AK118" s="1"/>
+      <c r="AL118" s="1"/>
+      <c r="AM118" s="1"/>
+    </row>
+    <row r="119" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B119" s="121">
+        <v>7.5036489225663576</v>
+      </c>
+      <c r="C119" s="121">
+        <v>9.6621603455398528</v>
+      </c>
+      <c r="D119" s="120">
+        <v>3.0529706000427907</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="1"/>
+      <c r="W119" s="1"/>
+      <c r="X119" s="1"/>
+      <c r="Y119" s="1"/>
+      <c r="Z119" s="1"/>
+      <c r="AA119" s="1"/>
+      <c r="AB119" s="1"/>
+      <c r="AC119" s="1"/>
+      <c r="AD119" s="1"/>
+      <c r="AE119" s="1"/>
+      <c r="AF119" s="1"/>
+      <c r="AG119" s="1"/>
+      <c r="AH119" s="1"/>
+      <c r="AI119" s="1"/>
+      <c r="AJ119" s="1"/>
+      <c r="AK119" s="1"/>
+      <c r="AL119" s="1"/>
+      <c r="AM119" s="1"/>
+    </row>
+    <row r="120" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" s="114"/>
+      <c r="C120" s="114"/>
+      <c r="D120" s="113"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
+      <c r="W120" s="1"/>
+      <c r="X120" s="1"/>
+      <c r="Y120" s="1"/>
+      <c r="Z120" s="1"/>
+      <c r="AA120" s="1"/>
+      <c r="AB120" s="1"/>
+      <c r="AC120" s="1"/>
+      <c r="AD120" s="1"/>
+      <c r="AE120" s="1"/>
+      <c r="AF120" s="1"/>
+      <c r="AG120" s="1"/>
+      <c r="AH120" s="1"/>
+      <c r="AI120" s="1"/>
+      <c r="AJ120" s="1"/>
+      <c r="AK120" s="1"/>
+      <c r="AL120" s="1"/>
+      <c r="AM120" s="1"/>
+    </row>
+    <row r="121" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="37">
-        <v>35</v>
-      </c>
-      <c r="D23" s="37">
-        <v>35</v>
-      </c>
-      <c r="E23" s="102"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" s="39">
-        <v>140</v>
-      </c>
-      <c r="C24" s="39">
-        <v>183.75</v>
-      </c>
-      <c r="D24" s="39">
-        <v>186.25</v>
-      </c>
-      <c r="E24" s="102"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" s="37">
-        <v>112</v>
-      </c>
-      <c r="C25" s="37">
-        <v>147</v>
-      </c>
-      <c r="D25" s="122">
-        <v>149</v>
-      </c>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="187" t="s">
-        <v>138</v>
-      </c>
-      <c r="B26" s="186"/>
-      <c r="C26" s="186"/>
-      <c r="D26" s="186"/>
-      <c r="E26" s="102"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="37">
-        <v>95</v>
-      </c>
-      <c r="C27" s="37">
-        <v>111</v>
-      </c>
-      <c r="D27" s="37">
-        <v>113</v>
-      </c>
-      <c r="E27" s="102"/>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="39">
-        <v>118.75</v>
-      </c>
-      <c r="C28" s="39">
-        <v>138.75</v>
-      </c>
-      <c r="D28" s="39">
-        <v>141.25</v>
-      </c>
-      <c r="E28" s="102"/>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" s="37">
-        <v>35</v>
-      </c>
-      <c r="C29" s="37">
-        <v>35</v>
-      </c>
-      <c r="D29" s="37">
-        <v>35</v>
-      </c>
-      <c r="E29" s="102"/>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B30" s="39">
-        <v>162.5</v>
-      </c>
-      <c r="C30" s="39">
-        <v>182.5</v>
-      </c>
-      <c r="D30" s="39">
-        <v>185</v>
-      </c>
-      <c r="E30" s="102"/>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="B31" s="37">
-        <v>130</v>
-      </c>
-      <c r="C31" s="37">
-        <v>146</v>
-      </c>
-      <c r="D31" s="37">
-        <v>148</v>
-      </c>
-      <c r="E31" s="102"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="187" t="s">
-        <v>137</v>
-      </c>
-      <c r="B32" s="186"/>
-      <c r="C32" s="186"/>
-      <c r="D32" s="188"/>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B33" s="37">
-        <v>133</v>
-      </c>
-      <c r="C33" s="37">
-        <v>148</v>
-      </c>
-      <c r="D33" s="37">
-        <v>150</v>
-      </c>
-      <c r="E33" s="102"/>
-      <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34" s="39">
-        <v>166.25</v>
-      </c>
-      <c r="C34" s="39">
-        <v>185</v>
-      </c>
-      <c r="D34" s="39">
-        <v>187.5</v>
-      </c>
-      <c r="E34" s="102"/>
-      <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" s="37">
-        <v>35</v>
-      </c>
-      <c r="C35" s="37">
-        <v>35</v>
-      </c>
-      <c r="D35" s="37">
-        <v>35</v>
-      </c>
-      <c r="E35" s="102"/>
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" s="39">
-        <v>210</v>
-      </c>
-      <c r="C36" s="39">
-        <v>228.75</v>
-      </c>
-      <c r="D36" s="39">
-        <v>231.25</v>
-      </c>
-      <c r="E36" s="102"/>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="B37" s="37">
-        <v>168</v>
-      </c>
-      <c r="C37" s="37">
-        <v>183</v>
-      </c>
-      <c r="D37" s="37">
-        <v>185</v>
-      </c>
-      <c r="E37" s="102"/>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="73"/>
-    </row>
-    <row r="41" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" s="185" t="s">
-        <v>128</v>
-      </c>
-      <c r="C44" s="185" t="s">
-        <v>127</v>
-      </c>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="65"/>
-    </row>
-    <row r="45" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="184" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" s="183" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" s="202" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" s="202"/>
-      <c r="E45" s="202"/>
-      <c r="F45" s="203"/>
-    </row>
-    <row r="46" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="181" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" s="180" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" s="196" t="s">
-        <v>123</v>
-      </c>
-      <c r="D46" s="196"/>
-      <c r="E46" s="196"/>
-      <c r="F46" s="197"/>
-    </row>
-    <row r="47" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="182" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="177" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="198" t="s">
-        <v>121</v>
-      </c>
-      <c r="D47" s="198"/>
-      <c r="E47" s="198"/>
-      <c r="F47" s="199"/>
-    </row>
-    <row r="48" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="181" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="180" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="196" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" s="196"/>
-      <c r="E48" s="196"/>
-      <c r="F48" s="197"/>
-    </row>
-    <row r="49" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="182" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" s="177" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="198" t="s">
-        <v>117</v>
-      </c>
-      <c r="D49" s="198"/>
-      <c r="E49" s="198"/>
-      <c r="F49" s="199"/>
-    </row>
-    <row r="50" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="181" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" s="180" t="s">
-        <v>116</v>
-      </c>
-      <c r="C50" s="196" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" s="196"/>
-      <c r="E50" s="196"/>
-      <c r="F50" s="197"/>
-    </row>
-    <row r="51" spans="1:32" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="179" t="s">
-        <v>114</v>
-      </c>
-      <c r="B51" s="178" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="198" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="198"/>
-      <c r="E51" s="198"/>
-      <c r="F51" s="199"/>
-    </row>
-    <row r="52" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="84"/>
-      <c r="D52" s="84"/>
-      <c r="E52" s="84"/>
-      <c r="F52" s="84"/>
-    </row>
-    <row r="53" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G53" s="85"/>
-      <c r="H53" s="113"/>
-    </row>
-    <row r="54" spans="1:32" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="G54" s="77"/>
-    </row>
-    <row r="55" spans="1:32" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="E55" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="F55" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="G55" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="H55" s="79" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:32" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="121" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" s="176"/>
-      <c r="C56" s="176"/>
-      <c r="D56" s="176"/>
-      <c r="E56" s="176"/>
-      <c r="F56" s="176"/>
-      <c r="G56" s="176"/>
-      <c r="H56" s="175"/>
-    </row>
-    <row r="57" spans="1:32" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="174">
-        <v>2019</v>
-      </c>
-      <c r="B57" s="173"/>
-      <c r="C57" s="173"/>
-      <c r="D57" s="173"/>
-      <c r="E57" s="173"/>
-      <c r="F57" s="173"/>
-      <c r="G57" s="173"/>
-      <c r="H57" s="172"/>
-    </row>
-    <row r="58" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B58" s="135">
-        <v>0.9911229510037054</v>
-      </c>
-      <c r="C58" s="135">
-        <v>2.1404537606000775</v>
-      </c>
-      <c r="D58" s="135">
-        <v>2.6850713767422376</v>
-      </c>
-      <c r="E58" s="135">
-        <v>3.4573514339911497</v>
-      </c>
-      <c r="F58" s="135">
-        <v>4.804818506977532</v>
-      </c>
-      <c r="G58" s="135">
-        <v>7.4253801600000005</v>
-      </c>
-      <c r="H58" s="134">
-        <v>6.9378487200000007</v>
-      </c>
-    </row>
-    <row r="59" spans="1:32" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59" s="54">
-        <v>0.35397783515392256</v>
-      </c>
-      <c r="C59" s="54">
-        <v>1.1283043495531282</v>
-      </c>
-      <c r="D59" s="54">
-        <v>1.3384786891757696</v>
-      </c>
-      <c r="E59" s="54">
-        <v>1.2610460377358488</v>
-      </c>
-      <c r="F59" s="54">
-        <v>1.106180734856008</v>
-      </c>
-      <c r="G59" s="54">
-        <v>1.2514796425024826</v>
-      </c>
-      <c r="H59" s="171">
-        <v>1.2514796425024826</v>
-      </c>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1"/>
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-      <c r="X59" s="1"/>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
-      <c r="AA59" s="1"/>
-      <c r="AB59" s="1"/>
-      <c r="AC59" s="1"/>
-      <c r="AD59" s="1"/>
-      <c r="AE59" s="1"/>
-      <c r="AF59" s="1"/>
-    </row>
-    <row r="60" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B60" s="52">
-        <v>0.54202856007944378</v>
-      </c>
-      <c r="C60" s="52">
-        <v>0.3429160278053624</v>
-      </c>
-      <c r="D60" s="52">
-        <v>0.67477024826216481</v>
-      </c>
-      <c r="E60" s="52">
-        <v>0.99556266137040716</v>
-      </c>
-      <c r="F60" s="52">
-        <v>1.2499842303872888</v>
-      </c>
-      <c r="G60" s="52">
-        <v>1.4529890764647468</v>
-      </c>
-      <c r="H60" s="55">
-        <v>1.4529890764647468</v>
-      </c>
-    </row>
-    <row r="61" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61" s="25">
-        <v>1.148250248262165</v>
-      </c>
-      <c r="C61" s="25">
-        <v>1.7920787818603114</v>
-      </c>
-      <c r="D61" s="25">
-        <v>2.1916360476663357</v>
-      </c>
-      <c r="E61" s="25">
-        <v>1.8937644488579941</v>
-      </c>
-      <c r="F61" s="25">
-        <v>2.0719412115193645</v>
-      </c>
-      <c r="G61" s="25">
-        <v>2.153393445878848</v>
-      </c>
-      <c r="H61" s="171">
-        <v>2.2379021095999998</v>
-      </c>
-    </row>
-    <row r="62" spans="1:32" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="B62" s="127">
-        <v>3.0353795944992368</v>
-      </c>
-      <c r="C62" s="127">
-        <v>5.4037529198188796</v>
-      </c>
-      <c r="D62" s="127">
-        <v>6.8899563618465081</v>
-      </c>
-      <c r="E62" s="127">
-        <v>7.6077245819553996</v>
-      </c>
-      <c r="F62" s="127">
-        <v>9.2329246837401939</v>
-      </c>
-      <c r="G62" s="127">
-        <v>12.283242324846077</v>
-      </c>
-      <c r="H62" s="126">
-        <v>11.880219548567229</v>
-      </c>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
-      <c r="AA62" s="1"/>
-      <c r="AB62" s="1"/>
-      <c r="AC62" s="1"/>
-      <c r="AD62" s="1"/>
-      <c r="AE62" s="1"/>
-      <c r="AF62" s="1"/>
-    </row>
-    <row r="63" spans="1:32" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="170">
-        <v>2045</v>
-      </c>
-      <c r="B63" s="91"/>
-      <c r="C63" s="91"/>
-      <c r="D63" s="91"/>
-      <c r="E63" s="91"/>
-      <c r="F63" s="91"/>
-      <c r="G63" s="169"/>
-      <c r="H63" s="168"/>
-    </row>
-    <row r="64" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="B64" s="135">
-        <v>0.5182130458550509</v>
-      </c>
-      <c r="C64" s="135">
-        <v>1.6654797643246777</v>
-      </c>
-      <c r="D64" s="135">
-        <v>2.0890474085376649</v>
-      </c>
-      <c r="E64" s="135">
-        <v>3.2841590391099444</v>
-      </c>
-      <c r="F64" s="135">
-        <v>4.6496882274310218</v>
-      </c>
-      <c r="G64" s="135">
-        <v>7.0121240296918037</v>
-      </c>
-      <c r="H64" s="134">
-        <v>6.5517259285857925</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B65" s="50">
-        <v>2.5624696893505821</v>
-      </c>
-      <c r="C65" s="50">
-        <v>4.9287789235434794</v>
-      </c>
-      <c r="D65" s="50">
-        <v>6.2939323936419349</v>
-      </c>
-      <c r="E65" s="50">
-        <v>7.4345321870741943</v>
-      </c>
-      <c r="F65" s="50">
-        <v>9.077794404193682</v>
-      </c>
-      <c r="G65" s="50">
-        <v>11.86998619453788</v>
-      </c>
-      <c r="H65" s="88">
-        <v>11.494096757153022</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="170">
-        <v>2065</v>
-      </c>
-      <c r="B66" s="54"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="169"/>
-      <c r="H66" s="168"/>
-    </row>
-    <row r="67" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B67" s="135">
-        <v>0.44437346911270431</v>
-      </c>
-      <c r="C67" s="135">
-        <v>1.3345132334103358</v>
-      </c>
-      <c r="D67" s="135">
-        <v>1.6739302278112871</v>
-      </c>
-      <c r="E67" s="135">
-        <v>2.7143722737299765</v>
-      </c>
-      <c r="F67" s="135">
-        <v>3.770580985673242</v>
-      </c>
-      <c r="G67" s="135">
-        <v>5.6867665573770498</v>
-      </c>
-      <c r="H67" s="134">
-        <v>5.3133880327868859</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B68" s="50">
-        <v>2.4886301126082357</v>
-      </c>
-      <c r="C68" s="50">
-        <v>4.5978123926291374</v>
-      </c>
-      <c r="D68" s="50">
-        <v>5.8788152129155566</v>
-      </c>
-      <c r="E68" s="50">
-        <v>6.8647454216942263</v>
-      </c>
-      <c r="F68" s="50">
-        <v>8.1986871624359026</v>
-      </c>
-      <c r="G68" s="54">
-        <v>10.544628722223127</v>
-      </c>
-      <c r="H68" s="88">
-        <v>10.255758861354115</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="121" t="s">
-        <v>36</v>
-      </c>
-      <c r="B69" s="120"/>
-      <c r="C69" s="120"/>
-      <c r="D69" s="120"/>
-      <c r="E69" s="120"/>
-      <c r="F69" s="120"/>
-      <c r="G69" s="120"/>
-      <c r="H69" s="119"/>
-    </row>
-    <row r="70" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B70" s="125">
-        <v>369</v>
-      </c>
-      <c r="C70" s="125">
+      <c r="B121" s="119">
         <v>340.95600000000002</v>
       </c>
-      <c r="D70" s="125">
+      <c r="C121" s="119">
+        <v>364.51295999999996</v>
+      </c>
+      <c r="D121" s="118">
         <v>340.95600000000002</v>
       </c>
-      <c r="E70" s="125">
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
+      <c r="U121" s="1"/>
+      <c r="V121" s="1"/>
+      <c r="W121" s="1"/>
+      <c r="X121" s="1"/>
+      <c r="Y121" s="1"/>
+      <c r="Z121" s="1"/>
+      <c r="AA121" s="1"/>
+      <c r="AB121" s="1"/>
+      <c r="AC121" s="1"/>
+      <c r="AD121" s="1"/>
+      <c r="AE121" s="1"/>
+      <c r="AF121" s="1"/>
+      <c r="AG121" s="1"/>
+      <c r="AH121" s="1"/>
+      <c r="AI121" s="1"/>
+      <c r="AJ121" s="1"/>
+      <c r="AK121" s="1"/>
+      <c r="AL121" s="1"/>
+      <c r="AM121" s="1"/>
+    </row>
+    <row r="122" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="117">
         <v>340.95600000000002</v>
       </c>
-      <c r="F70" s="125">
-        <v>369</v>
-      </c>
-      <c r="G70" s="125">
-        <v>369</v>
-      </c>
-      <c r="H70" s="124">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" s="123">
-        <v>369</v>
-      </c>
-      <c r="C71" s="123">
+      <c r="C122" s="117">
+        <v>364.51295999999996</v>
+      </c>
+      <c r="D122" s="116">
         <v>340.95600000000002</v>
       </c>
-      <c r="D71" s="123">
-        <v>340.95600000000002</v>
-      </c>
-      <c r="E71" s="123">
-        <v>340.95600000000002</v>
-      </c>
-      <c r="F71" s="123">
-        <v>369</v>
-      </c>
-      <c r="G71" s="123">
-        <v>369</v>
-      </c>
-      <c r="H71" s="122">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="121" t="s">
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
+      <c r="T122" s="1"/>
+      <c r="U122" s="1"/>
+      <c r="V122" s="1"/>
+      <c r="W122" s="1"/>
+      <c r="X122" s="1"/>
+      <c r="Y122" s="1"/>
+      <c r="Z122" s="1"/>
+      <c r="AA122" s="1"/>
+      <c r="AB122" s="1"/>
+      <c r="AC122" s="1"/>
+      <c r="AD122" s="1"/>
+      <c r="AE122" s="1"/>
+      <c r="AF122" s="1"/>
+      <c r="AG122" s="1"/>
+      <c r="AH122" s="1"/>
+      <c r="AI122" s="1"/>
+      <c r="AJ122" s="1"/>
+      <c r="AK122" s="1"/>
+      <c r="AL122" s="1"/>
+      <c r="AM122" s="1"/>
+    </row>
+    <row r="123" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="B72" s="120"/>
-      <c r="C72" s="120"/>
-      <c r="D72" s="120"/>
-      <c r="E72" s="120"/>
-      <c r="F72" s="120"/>
-      <c r="G72" s="120"/>
-      <c r="H72" s="119"/>
-    </row>
-    <row r="73" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" s="58">
-        <v>18.321118421052628</v>
-      </c>
-      <c r="C73" s="58">
-        <v>30.80713346573982</v>
-      </c>
-      <c r="D73" s="58">
-        <v>38.661016683217483</v>
-      </c>
-      <c r="E73" s="58">
-        <v>33.043198808341607</v>
-      </c>
-      <c r="F73" s="58">
-        <v>34.149379543197618</v>
-      </c>
-      <c r="G73" s="58">
-        <v>35.84746772591857</v>
-      </c>
-      <c r="H73" s="57">
-        <v>35.84746772591857</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B74" s="52">
-        <v>2.0164752979145977</v>
-      </c>
-      <c r="C74" s="52">
-        <v>5.5961683376365432</v>
-      </c>
-      <c r="D74" s="52">
-        <v>6.8395154836146963</v>
-      </c>
-      <c r="E74" s="52">
-        <v>8.4294132512413107</v>
-      </c>
-      <c r="F74" s="52">
-        <v>8.4294132512413107</v>
-      </c>
-      <c r="G74" s="52">
-        <v>8.4294132512413107</v>
-      </c>
-      <c r="H74" s="55">
-        <v>8.4294132512413107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B75" s="54">
-        <v>12.81529294935452</v>
-      </c>
-      <c r="C75" s="54">
-        <v>17.280759682224431</v>
-      </c>
-      <c r="D75" s="54">
-        <v>28.178177755710028</v>
-      </c>
-      <c r="E75" s="54">
-        <v>28.986190543744804</v>
-      </c>
-      <c r="F75" s="54">
-        <v>31.71338589060252</v>
-      </c>
-      <c r="G75" s="54">
-        <v>32.960103763451762</v>
-      </c>
-      <c r="H75" s="56">
-        <v>37.600004081632648</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B76" s="52">
-        <v>4.6378931852035752</v>
-      </c>
-      <c r="C76" s="52">
-        <v>14.012544458788481</v>
-      </c>
-      <c r="D76" s="52">
-        <v>22.107021986097319</v>
-      </c>
-      <c r="E76" s="52">
-        <v>20.227304865938432</v>
-      </c>
-      <c r="F76" s="52">
-        <v>22.137837020854022</v>
-      </c>
-      <c r="G76" s="52">
-        <v>23.014498510427011</v>
-      </c>
-      <c r="H76" s="55">
-        <v>26.236528301886789</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B77" s="50">
-        <v>37.790779853525322</v>
-      </c>
-      <c r="C77" s="50">
-        <v>67.696605944389276</v>
-      </c>
-      <c r="D77" s="50">
-        <v>95.785731908639534</v>
-      </c>
-      <c r="E77" s="50">
-        <v>90.686107469266148</v>
-      </c>
-      <c r="F77" s="50">
-        <v>96.430015705895471</v>
-      </c>
-      <c r="G77" s="50">
-        <v>100.25148325103865</v>
-      </c>
-      <c r="H77" s="88">
-        <v>108.11341336067932</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="24"/>
-      <c r="G78" s="84"/>
-      <c r="H78" s="84"/>
-    </row>
-    <row r="79" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="24"/>
-    </row>
-    <row r="80" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B81" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D81" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E81" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F81" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G81" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="H81" s="70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B82" s="69">
-        <v>301203.5749751738</v>
-      </c>
-      <c r="C82" s="69">
-        <v>1021334.6573982126</v>
-      </c>
-      <c r="D82" s="69">
-        <v>1635408.1429990069</v>
-      </c>
-      <c r="E82" s="69">
-        <v>2599471.6981132077</v>
-      </c>
-      <c r="F82" s="69">
-        <v>2844464.746772592</v>
-      </c>
-      <c r="G82" s="69">
-        <v>2955825.2234359486</v>
-      </c>
-      <c r="H82" s="62">
-        <v>3070667</v>
-      </c>
-      <c r="I82" s="102"/>
-    </row>
-    <row r="83" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B83" s="8">
-        <v>55149.950347567035</v>
-      </c>
-      <c r="C83" s="8">
-        <v>99694.141012909633</v>
-      </c>
-      <c r="D83" s="8">
-        <v>132571.99602780538</v>
-      </c>
-      <c r="E83" s="8">
-        <v>232266.137040715</v>
-      </c>
-      <c r="F83" s="8">
-        <v>254538.2323733863</v>
-      </c>
-      <c r="G83" s="8">
-        <v>264083.41608738829</v>
-      </c>
-      <c r="H83" s="8">
-        <v>273289.36300000001</v>
-      </c>
-      <c r="I83" s="167"/>
-      <c r="J83" s="85"/>
-    </row>
-    <row r="84" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B84" s="12">
-        <v>50000</v>
-      </c>
-      <c r="C84" s="12">
-        <v>45000</v>
-      </c>
-      <c r="D84" s="12">
-        <v>60000</v>
-      </c>
-      <c r="E84" s="12">
-        <v>125000</v>
-      </c>
-      <c r="F84" s="12">
-        <v>125000</v>
-      </c>
-      <c r="G84" s="12">
-        <v>125000</v>
-      </c>
-      <c r="H84" s="62">
-        <v>125000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B85" s="8">
-        <v>1920</v>
-      </c>
-      <c r="C85" s="8">
-        <v>2000</v>
-      </c>
-      <c r="D85" s="8">
-        <v>2000</v>
-      </c>
-      <c r="E85" s="8">
-        <v>3500</v>
-      </c>
-      <c r="F85" s="8">
-        <v>3500</v>
-      </c>
-      <c r="G85" s="8">
-        <v>3500</v>
-      </c>
-      <c r="H85" s="8">
-        <v>3500</v>
-      </c>
-      <c r="I85" s="102"/>
-    </row>
-    <row r="86" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B86" s="12">
-        <v>3</v>
-      </c>
-      <c r="C86" s="12">
-        <v>8</v>
-      </c>
-      <c r="D86" s="12">
-        <v>8</v>
-      </c>
-      <c r="E86" s="12">
-        <v>7</v>
-      </c>
-      <c r="F86" s="12">
-        <v>7</v>
-      </c>
-      <c r="G86" s="12">
-        <v>7</v>
-      </c>
-      <c r="H86" s="11">
-        <v>7</v>
-      </c>
-      <c r="I86" s="102"/>
-    </row>
-    <row r="87" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B87" s="166" t="s">
-        <v>94</v>
-      </c>
-      <c r="C87" s="166" t="s">
-        <v>94</v>
-      </c>
-      <c r="D87" s="166" t="s">
-        <v>94</v>
-      </c>
-      <c r="E87" s="166" t="s">
-        <v>94</v>
-      </c>
-      <c r="F87" s="166" t="s">
-        <v>94</v>
-      </c>
-      <c r="G87" s="166" t="s">
-        <v>94</v>
-      </c>
-      <c r="H87" s="166" t="s">
-        <v>94</v>
-      </c>
-      <c r="I87" s="102"/>
-    </row>
-    <row r="88" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" s="165" t="s">
-        <v>92</v>
-      </c>
-      <c r="C88" s="165" t="s">
-        <v>92</v>
-      </c>
-      <c r="D88" s="165" t="s">
-        <v>92</v>
-      </c>
-      <c r="E88" s="165" t="s">
-        <v>92</v>
-      </c>
-      <c r="F88" s="165" t="s">
-        <v>92</v>
-      </c>
-      <c r="G88" s="165" t="s">
-        <v>92</v>
-      </c>
-      <c r="H88" s="165" t="s">
-        <v>92</v>
-      </c>
-      <c r="I88" s="102"/>
-    </row>
-    <row r="89" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" s="8">
-        <v>2</v>
-      </c>
-      <c r="C89" s="8">
-        <v>2</v>
-      </c>
-      <c r="D89" s="8">
-        <v>3</v>
-      </c>
-      <c r="E89" s="8">
-        <v>7</v>
-      </c>
-      <c r="F89" s="8">
-        <v>7</v>
-      </c>
-      <c r="G89" s="8">
-        <v>9</v>
-      </c>
-      <c r="H89" s="7">
-        <v>9</v>
-      </c>
-      <c r="I89" s="102"/>
-    </row>
-    <row r="90" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" s="12">
-        <v>4</v>
-      </c>
-      <c r="C90" s="12">
-        <v>6</v>
-      </c>
-      <c r="D90" s="12">
-        <v>10</v>
-      </c>
-      <c r="E90" s="12">
-        <v>18</v>
-      </c>
-      <c r="F90" s="12">
-        <v>26</v>
-      </c>
-      <c r="G90" s="12">
-        <v>32</v>
-      </c>
-      <c r="H90" s="11">
-        <v>32</v>
-      </c>
-      <c r="I90" s="102"/>
-    </row>
-    <row r="91" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B91" s="162">
-        <v>8.3427857828594729E-2</v>
-      </c>
-      <c r="C91" s="162">
-        <v>0.180172875471387</v>
-      </c>
-      <c r="D91" s="162">
-        <v>0.22601610915338699</v>
-      </c>
-      <c r="E91" s="162">
-        <v>0.29102284797905298</v>
-      </c>
-      <c r="F91" s="162">
-        <v>0.40444600227083599</v>
-      </c>
-      <c r="G91" s="162">
-        <v>0.62503200000000003</v>
-      </c>
-      <c r="H91" s="161">
-        <v>0.58399400000000001</v>
-      </c>
-      <c r="I91" s="102"/>
-    </row>
-    <row r="92" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B92" s="164">
-        <v>7.6599491533628078E-2</v>
-      </c>
-      <c r="C92" s="164">
-        <v>0.14783315111355244</v>
-      </c>
-      <c r="D92" s="164">
-        <v>0.18542566233350524</v>
-      </c>
-      <c r="E92" s="164">
-        <v>0.24676037619277533</v>
-      </c>
-      <c r="F92" s="164">
-        <v>0.34277906221444554</v>
-      </c>
-      <c r="G92" s="164">
-        <v>0.51687527868852456</v>
-      </c>
-      <c r="H92" s="163">
-        <v>0.48293857194899814</v>
-      </c>
-      <c r="I92" s="102"/>
-    </row>
-    <row r="93" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B93" s="162">
-        <v>0.298237227592419</v>
-      </c>
-      <c r="C93" s="162">
-        <v>0.90169813068265936</v>
-      </c>
-      <c r="D93" s="162">
-        <v>1.1310339377103291</v>
-      </c>
-      <c r="E93" s="162">
-        <v>1.4672282560702574</v>
-      </c>
-      <c r="F93" s="162">
-        <v>2.0381518841476982</v>
-      </c>
-      <c r="G93" s="162">
-        <v>3.0739278688524592</v>
-      </c>
-      <c r="H93" s="161">
-        <v>2.8721016393442627</v>
-      </c>
-      <c r="I93" s="102"/>
-    </row>
-    <row r="94" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B94" s="160">
-        <v>0.941915514885167</v>
-      </c>
-      <c r="C94" s="160">
-        <v>0.84</v>
-      </c>
-      <c r="D94" s="160">
-        <v>0.84</v>
-      </c>
-      <c r="E94" s="160">
-        <v>0.81</v>
-      </c>
-      <c r="F94" s="160">
-        <v>0.79</v>
-      </c>
-      <c r="G94" s="160">
-        <v>0.79</v>
-      </c>
-      <c r="H94" s="159">
-        <v>0.79</v>
-      </c>
-      <c r="I94" s="102"/>
-    </row>
-    <row r="95" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="B95" s="158">
-        <v>1</v>
-      </c>
-      <c r="C95" s="158">
-        <v>1</v>
-      </c>
-      <c r="D95" s="158">
-        <v>1</v>
-      </c>
-      <c r="E95" s="158">
-        <v>1</v>
-      </c>
-      <c r="F95" s="158">
-        <v>1</v>
-      </c>
-      <c r="G95" s="158">
-        <v>1</v>
-      </c>
-      <c r="H95" s="157">
-        <v>1</v>
-      </c>
-      <c r="I95" s="102"/>
-    </row>
-    <row r="96" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="B99" s="156" t="s">
-        <v>85</v>
-      </c>
-      <c r="C99" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="D99" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="E99" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="F99" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="G99" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="H99" s="70" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B100" s="69">
-        <v>35176.547368421045</v>
-      </c>
-      <c r="C100" s="69">
-        <v>61614.266931479644</v>
-      </c>
-      <c r="D100" s="69">
-        <v>77322.03336643496</v>
-      </c>
-      <c r="E100" s="69">
-        <v>115651.19582919563</v>
-      </c>
-      <c r="F100" s="69">
-        <v>119522.82840119165</v>
-      </c>
-      <c r="G100" s="69">
-        <v>125466.137040715</v>
-      </c>
-      <c r="H100" s="68">
-        <v>125466.137040715</v>
-      </c>
-      <c r="I100" s="24"/>
-      <c r="J100" s="24"/>
-    </row>
-    <row r="101" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B101" s="47">
-        <v>3871.6325719960273</v>
-      </c>
-      <c r="C101" s="47">
-        <v>11192.336675273087</v>
-      </c>
-      <c r="D101" s="47">
-        <v>13679.030967229393</v>
-      </c>
-      <c r="E101" s="47">
-        <v>29502.946379344587</v>
-      </c>
-      <c r="F101" s="47">
-        <v>29502.946379344587</v>
-      </c>
-      <c r="G101" s="47">
-        <v>29502.946379344587</v>
-      </c>
-      <c r="H101" s="33">
-        <v>29502.946379344587</v>
-      </c>
-      <c r="I101" s="102"/>
-    </row>
-    <row r="102" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B102" s="155">
-        <v>24605.362462760677</v>
-      </c>
-      <c r="C102" s="155">
-        <v>34561.519364448861</v>
-      </c>
-      <c r="D102" s="155">
-        <v>56356.355511420057</v>
-      </c>
-      <c r="E102" s="155">
-        <v>101451.66690310682</v>
-      </c>
-      <c r="F102" s="155">
-        <v>110996.85061710882</v>
-      </c>
-      <c r="G102" s="155">
-        <v>115360.36317208117</v>
-      </c>
-      <c r="H102" s="155">
-        <v>131600.01428571428</v>
-      </c>
-      <c r="I102" s="102"/>
-    </row>
-    <row r="103" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B103" s="47">
-        <v>8904.7549155908637</v>
-      </c>
-      <c r="C103" s="47">
-        <v>28025.088917576963</v>
-      </c>
-      <c r="D103" s="47">
-        <v>44214.043972194639</v>
-      </c>
-      <c r="E103" s="47">
-        <v>70795.567030784514</v>
-      </c>
-      <c r="F103" s="47">
-        <v>77482.429572989073</v>
-      </c>
-      <c r="G103" s="47">
-        <v>80550.744786494542</v>
-      </c>
-      <c r="H103" s="33">
-        <v>91827.849056603765</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B104" s="67">
-        <v>72558.297318768615</v>
-      </c>
-      <c r="C104" s="67">
-        <v>135393.21188877855</v>
-      </c>
-      <c r="D104" s="67">
-        <v>191571.46381727906</v>
-      </c>
-      <c r="E104" s="67">
-        <v>317401.37614243152</v>
-      </c>
-      <c r="F104" s="67">
-        <v>337505.05497063411</v>
-      </c>
-      <c r="G104" s="67">
-        <v>350880.1913786353</v>
-      </c>
-      <c r="H104" s="67">
-        <v>378396.94676237763</v>
-      </c>
-      <c r="I104" s="102"/>
-    </row>
-    <row r="105" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G105" s="84"/>
-      <c r="H105" s="84"/>
-    </row>
-    <row r="106" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B108" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="C108" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="D108" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="E108" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F108" s="70" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B109" s="151">
-        <v>10.50483351235231</v>
-      </c>
-      <c r="C109" s="151">
-        <v>10.50483351235231</v>
-      </c>
-      <c r="D109" s="151">
-        <v>10.50483351235231</v>
-      </c>
-      <c r="E109" s="151">
-        <v>10.50483351235231</v>
-      </c>
-      <c r="F109" s="154">
-        <v>10.50483351235231</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B110" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="C110" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="D110" s="152">
-        <v>16.807733619763695</v>
-      </c>
-      <c r="E110" s="152">
-        <v>16.807733619763695</v>
-      </c>
-      <c r="F110" s="83">
-        <v>16.807733619763695</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B111" s="151">
-        <v>109.56541353383459</v>
-      </c>
-      <c r="C111" s="151">
-        <v>54.782706766917293</v>
-      </c>
-      <c r="D111" s="151">
-        <v>43.826165413533836</v>
-      </c>
-      <c r="E111" s="151">
-        <v>21.913082706766918</v>
-      </c>
-      <c r="F111" s="82">
-        <v>21.913082706766918</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B112" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="C112" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="D112" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="E112" s="152">
-        <v>9.4543501611170786</v>
-      </c>
-      <c r="F112" s="83">
-        <v>9.4543501611170786</v>
-      </c>
-    </row>
-    <row r="113" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B113" s="153">
-        <v>70.382384532760469</v>
-      </c>
-      <c r="C113" s="153">
-        <v>70.382384532760469</v>
-      </c>
-      <c r="D113" s="153">
-        <v>70.382384532760469</v>
-      </c>
-      <c r="E113" s="153">
-        <v>70.382384532760469</v>
-      </c>
-      <c r="F113" s="153">
-        <v>70.382384532760469</v>
-      </c>
-      <c r="G113" s="102"/>
-    </row>
-    <row r="114" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" spans="1:39" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B116" s="5"/>
-      <c r="C116" s="5"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-    </row>
-    <row r="117" spans="1:39" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B117" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C117" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D117" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E117" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F117" s="21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="118" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B118" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F118" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="119" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D119" s="152">
-        <v>1</v>
-      </c>
-      <c r="E119" s="152">
-        <v>1.5</v>
-      </c>
-      <c r="F119" s="83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B120" s="151">
-        <v>2</v>
-      </c>
-      <c r="C120" s="151">
-        <v>2</v>
-      </c>
-      <c r="D120" s="151">
-        <v>2</v>
-      </c>
-      <c r="E120" s="151">
-        <v>1</v>
-      </c>
-      <c r="F120" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:39" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="64" t="s">
-        <v>2</v>
-      </c>
-      <c r="B121" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C121" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D121" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E121" s="20">
-        <v>0.75</v>
-      </c>
-      <c r="F121" s="81">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="122" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="1"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
-      <c r="E123" s="5"/>
+      <c r="B123" s="114"/>
+      <c r="C123" s="114"/>
+      <c r="D123" s="113"/>
+      <c r="E123" s="2"/>
       <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
-      <c r="K123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
@@ -7736,460 +8263,367 @@
       <c r="AL123" s="1"/>
       <c r="AM123" s="1"/>
     </row>
-    <row r="124" spans="1:39" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
+    <row r="124" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B124" s="49">
+        <v>31.913178436049684</v>
+      </c>
+      <c r="C124" s="49">
+        <v>37.845211908477395</v>
+      </c>
+      <c r="D124" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
-    </row>
-    <row r="125" spans="1:39" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B125" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C125" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
+      <c r="T124" s="1"/>
+      <c r="U124" s="1"/>
+      <c r="V124" s="1"/>
+      <c r="W124" s="1"/>
+      <c r="X124" s="1"/>
+      <c r="Y124" s="1"/>
+      <c r="Z124" s="1"/>
+      <c r="AA124" s="1"/>
+      <c r="AB124" s="1"/>
+      <c r="AC124" s="1"/>
+      <c r="AD124" s="1"/>
+      <c r="AE124" s="1"/>
+      <c r="AF124" s="1"/>
+      <c r="AG124" s="1"/>
+      <c r="AH124" s="1"/>
+      <c r="AI124" s="1"/>
+      <c r="AJ124" s="1"/>
+      <c r="AK124" s="1"/>
+      <c r="AL124" s="1"/>
+      <c r="AM124" s="1"/>
+    </row>
+    <row r="125" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B125" s="47">
+        <v>23.328015234253229</v>
+      </c>
+      <c r="C125" s="47">
+        <v>26.416903770041706</v>
+      </c>
+      <c r="D125" s="50">
+        <v>4.2671611221449854</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
-    </row>
-    <row r="126" spans="1:39" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B126" s="150" t="s">
-        <v>58</v>
-      </c>
-      <c r="C126" s="149" t="s">
-        <v>55</v>
-      </c>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="T125" s="1"/>
+      <c r="U125" s="1"/>
+      <c r="V125" s="1"/>
+      <c r="W125" s="1"/>
+      <c r="X125" s="1"/>
+      <c r="Y125" s="1"/>
+      <c r="Z125" s="1"/>
+      <c r="AA125" s="1"/>
+      <c r="AB125" s="1"/>
+      <c r="AC125" s="1"/>
+      <c r="AD125" s="1"/>
+      <c r="AE125" s="1"/>
+      <c r="AF125" s="1"/>
+      <c r="AG125" s="1"/>
+      <c r="AH125" s="1"/>
+      <c r="AI125" s="1"/>
+      <c r="AJ125" s="1"/>
+      <c r="AK125" s="1"/>
+      <c r="AL125" s="1"/>
+      <c r="AM125" s="1"/>
+    </row>
+    <row r="126" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B126" s="45">
+        <v>105.06096135895278</v>
+      </c>
+      <c r="C126" s="45">
+        <v>115.56829836952207</v>
+      </c>
+      <c r="D126" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
-    </row>
-    <row r="127" spans="1:39" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B127" s="148" t="s">
-        <v>56</v>
-      </c>
-      <c r="C127" s="147" t="s">
-        <v>55</v>
-      </c>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
-    </row>
-    <row r="128" spans="1:39" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B128" s="146" t="s">
-        <v>53</v>
-      </c>
-      <c r="C128" s="145" t="s">
-        <v>52</v>
-      </c>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
-    </row>
-    <row r="129" spans="1:39" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="B129" s="144" t="s">
-        <v>50</v>
-      </c>
-      <c r="C129" s="143" t="s">
-        <v>49</v>
-      </c>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
-    </row>
-    <row r="130" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="142"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="142"/>
-    </row>
-    <row r="131" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="1"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="5"/>
-      <c r="D131" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="1"/>
+      <c r="U126" s="1"/>
+      <c r="V126" s="1"/>
+      <c r="W126" s="1"/>
+      <c r="X126" s="1"/>
+      <c r="Y126" s="1"/>
+      <c r="Z126" s="1"/>
+      <c r="AA126" s="1"/>
+      <c r="AB126" s="1"/>
+      <c r="AC126" s="1"/>
+      <c r="AD126" s="1"/>
+      <c r="AE126" s="1"/>
+      <c r="AF126" s="1"/>
+      <c r="AG126" s="1"/>
+      <c r="AH126" s="1"/>
+      <c r="AI126" s="1"/>
+      <c r="AJ126" s="1"/>
+      <c r="AK126" s="1"/>
+      <c r="AL126" s="1"/>
+      <c r="AM126" s="1"/>
+    </row>
+    <row r="127" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="1"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+      <c r="R127" s="1"/>
+      <c r="S127" s="1"/>
+      <c r="T127" s="1"/>
+      <c r="U127" s="1"/>
+      <c r="V127" s="1"/>
+      <c r="W127" s="1"/>
+      <c r="X127" s="1"/>
+      <c r="Y127" s="1"/>
+      <c r="Z127" s="1"/>
+      <c r="AA127" s="1"/>
+      <c r="AB127" s="1"/>
+      <c r="AC127" s="1"/>
+      <c r="AD127" s="1"/>
+      <c r="AE127" s="1"/>
+      <c r="AF127" s="1"/>
+      <c r="AG127" s="1"/>
+      <c r="AH127" s="1"/>
+      <c r="AI127" s="1"/>
+      <c r="AJ127" s="1"/>
+      <c r="AK127" s="1"/>
+      <c r="AL127" s="1"/>
+      <c r="AM127" s="1"/>
+    </row>
+    <row r="128" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="5"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+    </row>
+    <row r="129" spans="1:32" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B129" s="112"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+    </row>
+    <row r="130" spans="1:32" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B130" s="111"/>
+      <c r="C130" s="111"/>
+      <c r="D130" s="110"/>
+      <c r="E130" s="5"/>
+    </row>
+    <row r="131" spans="1:32" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="18"/>
+      <c r="B131" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C131" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="65" t="s">
+        <v>26</v>
+      </c>
       <c r="E131" s="5"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
-      <c r="K131" s="1"/>
-      <c r="L131" s="1"/>
-      <c r="M131" s="1"/>
-      <c r="N131" s="1"/>
-      <c r="O131" s="1"/>
-      <c r="P131" s="1"/>
-      <c r="Q131" s="1"/>
-      <c r="R131" s="1"/>
-      <c r="S131" s="1"/>
-      <c r="T131" s="1"/>
-      <c r="U131" s="1"/>
-      <c r="V131" s="1"/>
-      <c r="W131" s="1"/>
-      <c r="X131" s="1"/>
-      <c r="Y131" s="1"/>
-      <c r="Z131" s="1"/>
-      <c r="AA131" s="1"/>
-      <c r="AB131" s="1"/>
-      <c r="AC131" s="1"/>
-      <c r="AD131" s="1"/>
-      <c r="AE131" s="1"/>
-      <c r="AF131" s="1"/>
-      <c r="AG131" s="1"/>
-      <c r="AH131" s="1"/>
-      <c r="AI131" s="1"/>
-      <c r="AJ131" s="1"/>
-      <c r="AK131" s="1"/>
-      <c r="AL131" s="1"/>
-      <c r="AM131" s="1"/>
-    </row>
-    <row r="132" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B132" s="118"/>
-      <c r="C132" s="118"/>
-      <c r="D132" s="118"/>
+      <c r="F131" s="43"/>
+    </row>
+    <row r="132" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B132" s="64">
+        <v>2172762.8508440917</v>
+      </c>
+      <c r="C132" s="64">
+        <v>3394371.6893743789</v>
+      </c>
+      <c r="D132" s="63">
+        <v>327717.97418073489</v>
+      </c>
       <c r="E132" s="5"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
-      <c r="K132" s="1"/>
-      <c r="L132" s="1"/>
-      <c r="M132" s="1"/>
-      <c r="N132" s="1"/>
-      <c r="O132" s="1"/>
-      <c r="P132" s="1"/>
-      <c r="Q132" s="1"/>
-      <c r="R132" s="1"/>
-      <c r="S132" s="1"/>
-      <c r="T132" s="1"/>
-      <c r="U132" s="1"/>
-      <c r="V132" s="1"/>
-      <c r="W132" s="1"/>
-      <c r="X132" s="1"/>
-      <c r="Y132" s="1"/>
-      <c r="Z132" s="1"/>
-      <c r="AA132" s="1"/>
-      <c r="AB132" s="1"/>
-      <c r="AC132" s="1"/>
-      <c r="AD132" s="1"/>
-      <c r="AE132" s="1"/>
-      <c r="AF132" s="1"/>
-      <c r="AG132" s="1"/>
-      <c r="AH132" s="1"/>
-      <c r="AI132" s="1"/>
-      <c r="AJ132" s="1"/>
-      <c r="AK132" s="1"/>
-      <c r="AL132" s="1"/>
-      <c r="AM132" s="1"/>
-    </row>
-    <row r="133" spans="1:39" s="4" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="B133" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C133" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="D133" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="5"/>
-      <c r="J133" s="5"/>
-      <c r="K133" s="5"/>
-      <c r="L133" s="1"/>
-      <c r="M133" s="1"/>
-      <c r="N133" s="1"/>
-      <c r="O133" s="1"/>
-      <c r="P133" s="1"/>
-      <c r="Q133" s="1"/>
-      <c r="R133" s="1"/>
-      <c r="S133" s="1"/>
-      <c r="T133" s="1"/>
-      <c r="U133" s="1"/>
-      <c r="V133" s="1"/>
-      <c r="W133" s="1"/>
-      <c r="X133" s="1"/>
-      <c r="Y133" s="1"/>
-      <c r="Z133" s="1"/>
-      <c r="AA133" s="1"/>
-      <c r="AB133" s="1"/>
-      <c r="AC133" s="1"/>
-      <c r="AD133" s="1"/>
-      <c r="AE133" s="1"/>
-      <c r="AF133" s="1"/>
-      <c r="AG133" s="1"/>
-      <c r="AH133" s="1"/>
-      <c r="AI133" s="1"/>
-      <c r="AJ133" s="1"/>
-      <c r="AK133" s="1"/>
-      <c r="AL133" s="1"/>
-      <c r="AM133" s="1"/>
-    </row>
-    <row r="134" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="141" t="s">
-        <v>46</v>
-      </c>
-      <c r="B134" s="140"/>
-      <c r="C134" s="140"/>
-      <c r="D134" s="139"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
-      <c r="I134" s="5"/>
-      <c r="J134" s="5"/>
-      <c r="K134" s="5"/>
-      <c r="L134" s="1"/>
-      <c r="M134" s="1"/>
-      <c r="N134" s="1"/>
-      <c r="O134" s="1"/>
-      <c r="P134" s="1"/>
-      <c r="Q134" s="1"/>
-      <c r="R134" s="1"/>
-      <c r="S134" s="1"/>
-      <c r="T134" s="1"/>
-      <c r="U134" s="1"/>
-      <c r="V134" s="1"/>
-      <c r="W134" s="1"/>
-      <c r="X134" s="1"/>
-      <c r="Y134" s="1"/>
-      <c r="Z134" s="1"/>
-      <c r="AA134" s="1"/>
-      <c r="AB134" s="1"/>
-      <c r="AC134" s="1"/>
-      <c r="AD134" s="1"/>
-      <c r="AE134" s="1"/>
-      <c r="AF134" s="1"/>
-      <c r="AG134" s="1"/>
-      <c r="AH134" s="1"/>
-      <c r="AI134" s="1"/>
-      <c r="AJ134" s="1"/>
-      <c r="AK134" s="1"/>
-      <c r="AL134" s="1"/>
-      <c r="AM134" s="1"/>
-    </row>
-    <row r="135" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="138">
-        <v>2019</v>
-      </c>
-      <c r="B135" s="137"/>
-      <c r="C135" s="137"/>
-      <c r="D135" s="136"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5"/>
-      <c r="K135" s="5"/>
-      <c r="L135" s="1"/>
-      <c r="M135" s="1"/>
-      <c r="N135" s="1"/>
-      <c r="O135" s="1"/>
-      <c r="P135" s="1"/>
-      <c r="Q135" s="1"/>
-      <c r="R135" s="1"/>
-      <c r="S135" s="1"/>
-      <c r="T135" s="1"/>
-      <c r="U135" s="1"/>
-      <c r="V135" s="1"/>
-      <c r="W135" s="1"/>
-      <c r="X135" s="1"/>
-      <c r="Y135" s="1"/>
-      <c r="Z135" s="1"/>
-      <c r="AA135" s="1"/>
-      <c r="AB135" s="1"/>
-      <c r="AC135" s="1"/>
-      <c r="AD135" s="1"/>
-      <c r="AE135" s="1"/>
-      <c r="AF135" s="1"/>
-      <c r="AG135" s="1"/>
-      <c r="AH135" s="1"/>
-      <c r="AI135" s="1"/>
-      <c r="AJ135" s="1"/>
-      <c r="AK135" s="1"/>
-      <c r="AL135" s="1"/>
-      <c r="AM135" s="1"/>
-    </row>
-    <row r="136" spans="1:39" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B136" s="135">
-        <v>3.6712243511590943</v>
-      </c>
-      <c r="C136" s="135">
-        <v>5.5529607681126505</v>
-      </c>
-      <c r="D136" s="134">
-        <v>1.3002064786870831</v>
-      </c>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="5"/>
-      <c r="J136" s="5"/>
-      <c r="K136" s="5"/>
-      <c r="L136" s="1"/>
-      <c r="M136" s="1"/>
-      <c r="N136" s="1"/>
-      <c r="O136" s="1"/>
-      <c r="P136" s="1"/>
-      <c r="Q136" s="1"/>
-      <c r="R136" s="1"/>
-      <c r="S136" s="1"/>
-      <c r="T136" s="1"/>
-      <c r="U136" s="1"/>
-      <c r="V136" s="1"/>
-      <c r="W136" s="1"/>
-      <c r="X136" s="1"/>
-      <c r="Y136" s="1"/>
-      <c r="Z136" s="1"/>
-      <c r="AA136" s="1"/>
-      <c r="AB136" s="1"/>
-      <c r="AC136" s="1"/>
-      <c r="AD136" s="1"/>
-      <c r="AE136" s="1"/>
-      <c r="AF136" s="1"/>
-      <c r="AG136" s="1"/>
-      <c r="AH136" s="1"/>
-      <c r="AI136" s="1"/>
-      <c r="AJ136" s="1"/>
-      <c r="AK136" s="1"/>
-      <c r="AL136" s="1"/>
-      <c r="AM136" s="1"/>
-    </row>
-    <row r="137" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B137" s="54">
-        <v>0.6103894453676042</v>
-      </c>
-      <c r="C137" s="54">
-        <v>0.92325293122612029</v>
-      </c>
-      <c r="D137" s="56">
-        <v>0.19939258021034142</v>
-      </c>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="5"/>
-      <c r="J137" s="5"/>
-      <c r="K137" s="5"/>
-      <c r="L137" s="1"/>
-      <c r="M137" s="1"/>
-      <c r="N137" s="1"/>
-      <c r="O137" s="1"/>
-      <c r="P137" s="1"/>
-      <c r="Q137" s="1"/>
-      <c r="R137" s="1"/>
-      <c r="S137" s="1"/>
-      <c r="T137" s="1"/>
-      <c r="U137" s="1"/>
-      <c r="V137" s="1"/>
-      <c r="W137" s="1"/>
-      <c r="X137" s="1"/>
-      <c r="Y137" s="1"/>
-      <c r="Z137" s="1"/>
-      <c r="AA137" s="1"/>
-      <c r="AB137" s="1"/>
-      <c r="AC137" s="1"/>
-      <c r="AD137" s="1"/>
-      <c r="AE137" s="1"/>
-      <c r="AF137" s="1"/>
-      <c r="AG137" s="1"/>
-      <c r="AH137" s="1"/>
-      <c r="AI137" s="1"/>
-      <c r="AJ137" s="1"/>
-      <c r="AK137" s="1"/>
-      <c r="AL137" s="1"/>
-      <c r="AM137" s="1"/>
-    </row>
-    <row r="138" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B138" s="52">
-        <v>1.5099378092591853</v>
-      </c>
-      <c r="C138" s="52">
-        <v>1.3684606118133067</v>
-      </c>
-      <c r="D138" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="E138" s="2"/>
-      <c r="F138" s="133"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="5"/>
-      <c r="J138" s="5"/>
-      <c r="K138" s="5"/>
+      <c r="F132" s="80"/>
+      <c r="G132" s="43"/>
+      <c r="J132" s="43"/>
+    </row>
+    <row r="133" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B133" s="42">
+        <v>4535.0228401191662</v>
+      </c>
+      <c r="C133" s="42">
+        <v>5198.9433962264156</v>
+      </c>
+      <c r="D133" s="31">
+        <v>1370</v>
+      </c>
+      <c r="E133" s="5"/>
+      <c r="F133" s="80"/>
+      <c r="G133" s="80"/>
+      <c r="J133" s="80"/>
+    </row>
+    <row r="134" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B134" s="41">
+        <v>60000</v>
+      </c>
+      <c r="C134" s="41">
+        <v>125000</v>
+      </c>
+      <c r="D134" s="32">
+        <v>18000</v>
+      </c>
+      <c r="E134" s="5"/>
+      <c r="F134" s="80"/>
+      <c r="G134" s="80"/>
+      <c r="H134" s="80"/>
+      <c r="I134" s="80"/>
+      <c r="J134" s="80"/>
+    </row>
+    <row r="135" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B135" s="42">
+        <v>2000</v>
+      </c>
+      <c r="C135" s="42">
+        <v>3500</v>
+      </c>
+      <c r="D135" s="31">
+        <v>1920</v>
+      </c>
+      <c r="F135" s="80"/>
+      <c r="G135" s="80"/>
+      <c r="H135" s="80"/>
+      <c r="I135" s="80"/>
+      <c r="J135" s="80"/>
+    </row>
+    <row r="136" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B136" s="41">
+        <v>340.95600000000002</v>
+      </c>
+      <c r="C136" s="41">
+        <v>364.51295999999996</v>
+      </c>
+      <c r="D136" s="41">
+        <v>340.95600000000002</v>
+      </c>
+      <c r="E136" s="109"/>
+      <c r="F136" s="80"/>
+      <c r="G136" s="80"/>
+      <c r="H136" s="80"/>
+      <c r="I136" s="80"/>
+      <c r="J136" s="80"/>
+    </row>
+    <row r="137" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B137" s="108">
+        <v>1</v>
+      </c>
+      <c r="C137" s="108">
+        <v>1</v>
+      </c>
+      <c r="D137" s="73">
+        <v>1</v>
+      </c>
+      <c r="E137" s="5"/>
+      <c r="F137" s="80"/>
+      <c r="G137" s="80"/>
+      <c r="H137" s="80"/>
+      <c r="I137" s="80"/>
+      <c r="J137" s="80"/>
+    </row>
+    <row r="138" spans="1:32" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B138" s="41">
+        <v>340.95600000000002</v>
+      </c>
+      <c r="C138" s="41">
+        <v>364.51295999999996</v>
+      </c>
+      <c r="D138" s="32">
+        <v>340.95600000000002</v>
+      </c>
+      <c r="E138" s="107"/>
+      <c r="F138" s="80"/>
+      <c r="G138" s="80"/>
+      <c r="H138" s="80"/>
+      <c r="I138" s="80"/>
+      <c r="J138" s="80"/>
+      <c r="K138" s="1"/>
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
@@ -8211,34 +8645,27 @@
       <c r="AD138" s="1"/>
       <c r="AE138" s="1"/>
       <c r="AF138" s="1"/>
-      <c r="AG138" s="1"/>
-      <c r="AH138" s="1"/>
-      <c r="AI138" s="1"/>
-      <c r="AJ138" s="1"/>
-      <c r="AK138" s="1"/>
-      <c r="AL138" s="1"/>
-      <c r="AM138" s="1"/>
-    </row>
-    <row r="139" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B139" s="54">
-        <v>0.9650431348957299</v>
-      </c>
-      <c r="C139" s="54">
-        <v>1.4632249030069508</v>
-      </c>
-      <c r="D139" s="56">
-        <v>0.14842666666666665</v>
-      </c>
-      <c r="E139" s="2"/>
-      <c r="F139" s="133"/>
-      <c r="G139" s="1"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="5"/>
-      <c r="J139" s="5"/>
-      <c r="K139" s="5"/>
+    </row>
+    <row r="139" spans="1:32" s="4" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B139" s="39">
+        <v>356.22399999999999</v>
+      </c>
+      <c r="C139" s="39">
+        <v>356.22399999999999</v>
+      </c>
+      <c r="D139" s="38">
+        <v>356.22399999999999</v>
+      </c>
+      <c r="E139" s="96"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="80"/>
+      <c r="H139" s="80"/>
+      <c r="I139" s="80"/>
+      <c r="J139" s="80"/>
+      <c r="K139" s="1"/>
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
@@ -8260,1332 +8687,268 @@
       <c r="AD139" s="1"/>
       <c r="AE139" s="1"/>
       <c r="AF139" s="1"/>
-      <c r="AG139" s="1"/>
-      <c r="AH139" s="1"/>
-      <c r="AI139" s="1"/>
-      <c r="AJ139" s="1"/>
-      <c r="AK139" s="1"/>
-      <c r="AL139" s="1"/>
-      <c r="AM139" s="1"/>
-    </row>
-    <row r="140" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B140" s="52">
-        <v>2.3340973357000991</v>
-      </c>
-      <c r="C140" s="52">
-        <v>2.4725538446871891</v>
-      </c>
-      <c r="D140" s="55">
+    </row>
+    <row r="140" spans="1:32" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140" s="106"/>
+      <c r="C140" s="106"/>
+      <c r="D140" s="105"/>
+      <c r="F140" s="80"/>
+      <c r="H140" s="80"/>
+      <c r="I140" s="80"/>
+    </row>
+    <row r="141" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B141" s="104">
+        <v>0.13</v>
+      </c>
+      <c r="C141" s="104">
+        <v>0.13</v>
+      </c>
+      <c r="D141" s="103">
+        <v>0.13</v>
+      </c>
+      <c r="F141" s="80"/>
+      <c r="G141" s="80"/>
+      <c r="H141" s="80"/>
+      <c r="I141" s="80"/>
+      <c r="J141" s="80"/>
+    </row>
+    <row r="142" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" s="102">
+        <v>1</v>
+      </c>
+      <c r="C142" s="102">
+        <v>1</v>
+      </c>
+      <c r="D142" s="101">
+        <v>1</v>
+      </c>
+      <c r="F142" s="80"/>
+      <c r="G142" s="80"/>
+      <c r="H142" s="80"/>
+      <c r="I142" s="80"/>
+      <c r="J142" s="80"/>
+    </row>
+    <row r="143" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143" s="92">
+        <v>4.7076528434955325</v>
+      </c>
+      <c r="C143" s="92">
+        <v>3.5301465569493544</v>
+      </c>
+      <c r="D143" s="92">
         <v>2.3668520357497522</v>
       </c>
-      <c r="E140" s="2"/>
-      <c r="F140" s="132"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="5"/>
-      <c r="J140" s="5"/>
-      <c r="K140" s="5"/>
-      <c r="L140" s="1"/>
-      <c r="M140" s="1"/>
-      <c r="N140" s="1"/>
-      <c r="O140" s="1"/>
-      <c r="P140" s="1"/>
-      <c r="Q140" s="1"/>
-      <c r="R140" s="1"/>
-      <c r="S140" s="1"/>
-      <c r="T140" s="1"/>
-      <c r="U140" s="1"/>
-      <c r="V140" s="1"/>
-      <c r="W140" s="1"/>
-      <c r="X140" s="1"/>
-      <c r="Y140" s="1"/>
-      <c r="Z140" s="1"/>
-      <c r="AA140" s="1"/>
-      <c r="AB140" s="1"/>
-      <c r="AC140" s="1"/>
-      <c r="AD140" s="1"/>
-      <c r="AE140" s="1"/>
-      <c r="AF140" s="1"/>
-      <c r="AG140" s="1"/>
-      <c r="AH140" s="1"/>
-      <c r="AI140" s="1"/>
-      <c r="AJ140" s="1"/>
-      <c r="AK140" s="1"/>
-      <c r="AL140" s="1"/>
-      <c r="AM140" s="1"/>
-    </row>
-    <row r="141" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B141" s="50">
-        <v>8.4803026310141085</v>
-      </c>
-      <c r="C141" s="50">
-        <v>10.857200127620096</v>
-      </c>
-      <c r="D141" s="88">
-        <v>3.8154851811035018</v>
-      </c>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="1"/>
-      <c r="H141" s="1"/>
-      <c r="I141" s="5"/>
-      <c r="J141" s="5"/>
-      <c r="K141" s="5"/>
-      <c r="L141" s="1"/>
-      <c r="M141" s="1"/>
-      <c r="N141" s="1"/>
-      <c r="O141" s="1"/>
-      <c r="P141" s="1"/>
-      <c r="Q141" s="1"/>
-      <c r="R141" s="1"/>
-      <c r="S141" s="1"/>
-      <c r="T141" s="1"/>
-      <c r="U141" s="1"/>
-      <c r="V141" s="1"/>
-      <c r="W141" s="1"/>
-      <c r="X141" s="1"/>
-      <c r="Y141" s="1"/>
-      <c r="Z141" s="1"/>
-      <c r="AA141" s="1"/>
-      <c r="AB141" s="1"/>
-      <c r="AC141" s="1"/>
-      <c r="AD141" s="1"/>
-      <c r="AE141" s="1"/>
-      <c r="AF141" s="1"/>
-      <c r="AG141" s="1"/>
-      <c r="AH141" s="1"/>
-      <c r="AI141" s="1"/>
-      <c r="AJ141" s="1"/>
-      <c r="AK141" s="1"/>
-      <c r="AL141" s="1"/>
-      <c r="AM141" s="1"/>
-    </row>
-    <row r="142" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="131">
-        <v>2045</v>
-      </c>
-      <c r="B142" s="86"/>
-      <c r="C142" s="86"/>
-      <c r="D142" s="76"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
-      <c r="K142" s="5"/>
-      <c r="L142" s="1"/>
-      <c r="M142" s="1"/>
-      <c r="N142" s="1"/>
-      <c r="O142" s="1"/>
-      <c r="P142" s="1"/>
-      <c r="Q142" s="1"/>
-      <c r="R142" s="1"/>
-      <c r="S142" s="1"/>
-      <c r="T142" s="1"/>
-      <c r="U142" s="1"/>
-      <c r="V142" s="1"/>
-      <c r="W142" s="1"/>
-      <c r="X142" s="1"/>
-      <c r="Y142" s="1"/>
-      <c r="Z142" s="1"/>
-      <c r="AA142" s="1"/>
-      <c r="AB142" s="1"/>
-      <c r="AC142" s="1"/>
-      <c r="AD142" s="1"/>
-      <c r="AE142" s="1"/>
-      <c r="AF142" s="1"/>
-      <c r="AG142" s="1"/>
-      <c r="AH142" s="1"/>
-      <c r="AI142" s="1"/>
-      <c r="AJ142" s="1"/>
-      <c r="AK142" s="1"/>
-      <c r="AL142" s="1"/>
-      <c r="AM142" s="1"/>
-    </row>
-    <row r="143" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B143" s="52">
-        <v>3.287769869731529</v>
-      </c>
-      <c r="C143" s="52">
-        <v>5.3617563043325749</v>
-      </c>
-      <c r="D143" s="55">
-        <v>0.63578337860003642</v>
-      </c>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
-      <c r="I143" s="5"/>
-      <c r="J143" s="5"/>
-      <c r="K143" s="5"/>
-      <c r="L143" s="1"/>
-      <c r="M143" s="1"/>
-      <c r="N143" s="1"/>
-      <c r="O143" s="1"/>
-      <c r="P143" s="1"/>
-      <c r="Q143" s="1"/>
-      <c r="R143" s="1"/>
-      <c r="S143" s="1"/>
-      <c r="T143" s="1"/>
-      <c r="U143" s="1"/>
-      <c r="V143" s="1"/>
-      <c r="W143" s="1"/>
-      <c r="X143" s="1"/>
-      <c r="Y143" s="1"/>
-      <c r="Z143" s="1"/>
-      <c r="AA143" s="1"/>
-      <c r="AB143" s="1"/>
-      <c r="AC143" s="1"/>
-      <c r="AD143" s="1"/>
-      <c r="AE143" s="1"/>
-      <c r="AF143" s="1"/>
-      <c r="AG143" s="1"/>
-      <c r="AH143" s="1"/>
-      <c r="AI143" s="1"/>
-      <c r="AJ143" s="1"/>
-      <c r="AK143" s="1"/>
-      <c r="AL143" s="1"/>
-      <c r="AM143" s="1"/>
-    </row>
-    <row r="144" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B144" s="54">
-        <v>0.46075769202741756</v>
-      </c>
-      <c r="C144" s="54">
-        <v>0.70229780389782737</v>
-      </c>
-      <c r="D144" s="56">
-        <v>0.10910441496382811</v>
-      </c>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="5"/>
-      <c r="J144" s="5"/>
-      <c r="K144" s="5"/>
-      <c r="L144" s="1"/>
-      <c r="M144" s="1"/>
-      <c r="N144" s="1"/>
-      <c r="O144" s="1"/>
-      <c r="P144" s="1"/>
-      <c r="Q144" s="1"/>
-      <c r="R144" s="1"/>
-      <c r="S144" s="1"/>
-      <c r="T144" s="1"/>
-      <c r="U144" s="1"/>
-      <c r="V144" s="1"/>
-      <c r="W144" s="1"/>
-      <c r="X144" s="1"/>
-      <c r="Y144" s="1"/>
-      <c r="Z144" s="1"/>
-      <c r="AA144" s="1"/>
-      <c r="AB144" s="1"/>
-      <c r="AC144" s="1"/>
-      <c r="AD144" s="1"/>
-      <c r="AE144" s="1"/>
-      <c r="AF144" s="1"/>
-      <c r="AG144" s="1"/>
-      <c r="AH144" s="1"/>
-      <c r="AI144" s="1"/>
-      <c r="AJ144" s="1"/>
-      <c r="AK144" s="1"/>
-      <c r="AL144" s="1"/>
-      <c r="AM144" s="1"/>
-    </row>
-    <row r="145" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="B145" s="127">
-        <v>8.0968481495865436</v>
-      </c>
-      <c r="C145" s="127">
-        <v>10.665995663840022</v>
-      </c>
-      <c r="D145" s="126">
-        <v>3.1510620810164554</v>
-      </c>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5"/>
-      <c r="K145" s="5"/>
-      <c r="L145" s="1"/>
-      <c r="M145" s="1"/>
-      <c r="N145" s="1"/>
-      <c r="O145" s="1"/>
-      <c r="P145" s="1"/>
-      <c r="Q145" s="1"/>
-      <c r="R145" s="1"/>
-      <c r="S145" s="1"/>
-      <c r="T145" s="1"/>
-      <c r="U145" s="1"/>
-      <c r="V145" s="1"/>
-      <c r="W145" s="1"/>
-      <c r="X145" s="1"/>
-      <c r="Y145" s="1"/>
-      <c r="Z145" s="1"/>
-      <c r="AA145" s="1"/>
-      <c r="AB145" s="1"/>
-      <c r="AC145" s="1"/>
-      <c r="AD145" s="1"/>
-      <c r="AE145" s="1"/>
-      <c r="AF145" s="1"/>
-      <c r="AG145" s="1"/>
-      <c r="AH145" s="1"/>
-      <c r="AI145" s="1"/>
-      <c r="AJ145" s="1"/>
-      <c r="AK145" s="1"/>
-      <c r="AL145" s="1"/>
-      <c r="AM145" s="1"/>
-    </row>
-    <row r="146" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="130">
-        <v>2065</v>
-      </c>
-      <c r="B146" s="129"/>
-      <c r="C146" s="129"/>
-      <c r="D146" s="128"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
-      <c r="I146" s="5"/>
-      <c r="J146" s="5"/>
-      <c r="K146" s="5"/>
-      <c r="L146" s="1"/>
-      <c r="M146" s="1"/>
-      <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
-      <c r="P146" s="1"/>
-      <c r="Q146" s="1"/>
-      <c r="R146" s="1"/>
-      <c r="S146" s="1"/>
-      <c r="T146" s="1"/>
-      <c r="U146" s="1"/>
-      <c r="V146" s="1"/>
-      <c r="W146" s="1"/>
-      <c r="X146" s="1"/>
-      <c r="Y146" s="1"/>
-      <c r="Z146" s="1"/>
-      <c r="AA146" s="1"/>
-      <c r="AB146" s="1"/>
-      <c r="AC146" s="1"/>
-      <c r="AD146" s="1"/>
-      <c r="AE146" s="1"/>
-      <c r="AF146" s="1"/>
-      <c r="AG146" s="1"/>
-      <c r="AH146" s="1"/>
-      <c r="AI146" s="1"/>
-      <c r="AJ146" s="1"/>
-      <c r="AK146" s="1"/>
-      <c r="AL146" s="1"/>
-      <c r="AM146" s="1"/>
-    </row>
-    <row r="147" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B147" s="52">
-        <v>2.6945706427113438</v>
-      </c>
-      <c r="C147" s="52">
-        <v>4.3579209860324069</v>
-      </c>
-      <c r="D147" s="55">
-        <v>0.53769189762637215</v>
-      </c>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="5"/>
-      <c r="J147" s="5"/>
-      <c r="K147" s="5"/>
-      <c r="L147" s="1"/>
-      <c r="M147" s="1"/>
-      <c r="N147" s="1"/>
-      <c r="O147" s="1"/>
-      <c r="P147" s="1"/>
-      <c r="Q147" s="1"/>
-      <c r="R147" s="1"/>
-      <c r="S147" s="1"/>
-      <c r="T147" s="1"/>
-      <c r="U147" s="1"/>
-      <c r="V147" s="1"/>
-      <c r="W147" s="1"/>
-      <c r="X147" s="1"/>
-      <c r="Y147" s="1"/>
-      <c r="Z147" s="1"/>
-      <c r="AA147" s="1"/>
-      <c r="AB147" s="1"/>
-      <c r="AC147" s="1"/>
-      <c r="AD147" s="1"/>
-      <c r="AE147" s="1"/>
-      <c r="AF147" s="1"/>
-      <c r="AG147" s="1"/>
-      <c r="AH147" s="1"/>
-      <c r="AI147" s="1"/>
-      <c r="AJ147" s="1"/>
-      <c r="AK147" s="1"/>
-      <c r="AL147" s="1"/>
-      <c r="AM147" s="1"/>
-    </row>
-    <row r="148" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B148" s="54">
-        <v>0.44960650323766638</v>
-      </c>
-      <c r="C148" s="54">
-        <v>0.68138143627935766</v>
-      </c>
-      <c r="D148" s="56">
-        <v>0.10438302965734664</v>
-      </c>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
-      <c r="I148" s="5"/>
-      <c r="J148" s="5"/>
-      <c r="K148" s="5"/>
-      <c r="L148" s="1"/>
-      <c r="M148" s="1"/>
-      <c r="N148" s="1"/>
-      <c r="O148" s="1"/>
-      <c r="P148" s="1"/>
-      <c r="Q148" s="1"/>
-      <c r="R148" s="1"/>
-      <c r="S148" s="1"/>
-      <c r="T148" s="1"/>
-      <c r="U148" s="1"/>
-      <c r="V148" s="1"/>
-      <c r="W148" s="1"/>
-      <c r="X148" s="1"/>
-      <c r="Y148" s="1"/>
-      <c r="Z148" s="1"/>
-      <c r="AA148" s="1"/>
-      <c r="AB148" s="1"/>
-      <c r="AC148" s="1"/>
-      <c r="AD148" s="1"/>
-      <c r="AE148" s="1"/>
-      <c r="AF148" s="1"/>
-      <c r="AG148" s="1"/>
-      <c r="AH148" s="1"/>
-      <c r="AI148" s="1"/>
-      <c r="AJ148" s="1"/>
-      <c r="AK148" s="1"/>
-      <c r="AL148" s="1"/>
-      <c r="AM148" s="1"/>
-    </row>
-    <row r="149" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="B149" s="127">
-        <v>7.5036489225663576</v>
-      </c>
-      <c r="C149" s="127">
-        <v>9.6621603455398528</v>
-      </c>
-      <c r="D149" s="126">
-        <v>3.0529706000427907</v>
-      </c>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
-      <c r="I149" s="5"/>
-      <c r="J149" s="5"/>
-      <c r="K149" s="5"/>
-      <c r="L149" s="1"/>
-      <c r="M149" s="1"/>
-      <c r="N149" s="1"/>
-      <c r="O149" s="1"/>
-      <c r="P149" s="1"/>
-      <c r="Q149" s="1"/>
-      <c r="R149" s="1"/>
-      <c r="S149" s="1"/>
-      <c r="T149" s="1"/>
-      <c r="U149" s="1"/>
-      <c r="V149" s="1"/>
-      <c r="W149" s="1"/>
-      <c r="X149" s="1"/>
-      <c r="Y149" s="1"/>
-      <c r="Z149" s="1"/>
-      <c r="AA149" s="1"/>
-      <c r="AB149" s="1"/>
-      <c r="AC149" s="1"/>
-      <c r="AD149" s="1"/>
-      <c r="AE149" s="1"/>
-      <c r="AF149" s="1"/>
-      <c r="AG149" s="1"/>
-      <c r="AH149" s="1"/>
-      <c r="AI149" s="1"/>
-      <c r="AJ149" s="1"/>
-      <c r="AK149" s="1"/>
-      <c r="AL149" s="1"/>
-      <c r="AM149" s="1"/>
-    </row>
-    <row r="150" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="121" t="s">
-        <v>36</v>
-      </c>
-      <c r="B150" s="120"/>
-      <c r="C150" s="120"/>
-      <c r="D150" s="119"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5"/>
-      <c r="K150" s="5"/>
-      <c r="L150" s="1"/>
-      <c r="M150" s="1"/>
-      <c r="N150" s="1"/>
-      <c r="O150" s="1"/>
-      <c r="P150" s="1"/>
-      <c r="Q150" s="1"/>
-      <c r="R150" s="1"/>
-      <c r="S150" s="1"/>
-      <c r="T150" s="1"/>
-      <c r="U150" s="1"/>
-      <c r="V150" s="1"/>
-      <c r="W150" s="1"/>
-      <c r="X150" s="1"/>
-      <c r="Y150" s="1"/>
-      <c r="Z150" s="1"/>
-      <c r="AA150" s="1"/>
-      <c r="AB150" s="1"/>
-      <c r="AC150" s="1"/>
-      <c r="AD150" s="1"/>
-      <c r="AE150" s="1"/>
-      <c r="AF150" s="1"/>
-      <c r="AG150" s="1"/>
-      <c r="AH150" s="1"/>
-      <c r="AI150" s="1"/>
-      <c r="AJ150" s="1"/>
-      <c r="AK150" s="1"/>
-      <c r="AL150" s="1"/>
-      <c r="AM150" s="1"/>
-    </row>
-    <row r="151" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B151" s="125">
-        <v>340.95600000000002</v>
-      </c>
-      <c r="C151" s="125">
-        <v>364.51295999999996</v>
-      </c>
-      <c r="D151" s="124">
-        <v>340.95600000000002</v>
-      </c>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="5"/>
-      <c r="J151" s="5"/>
-      <c r="K151" s="5"/>
-      <c r="L151" s="1"/>
-      <c r="M151" s="1"/>
-      <c r="N151" s="1"/>
-      <c r="O151" s="1"/>
-      <c r="P151" s="1"/>
-      <c r="Q151" s="1"/>
-      <c r="R151" s="1"/>
-      <c r="S151" s="1"/>
-      <c r="T151" s="1"/>
-      <c r="U151" s="1"/>
-      <c r="V151" s="1"/>
-      <c r="W151" s="1"/>
-      <c r="X151" s="1"/>
-      <c r="Y151" s="1"/>
-      <c r="Z151" s="1"/>
-      <c r="AA151" s="1"/>
-      <c r="AB151" s="1"/>
-      <c r="AC151" s="1"/>
-      <c r="AD151" s="1"/>
-      <c r="AE151" s="1"/>
-      <c r="AF151" s="1"/>
-      <c r="AG151" s="1"/>
-      <c r="AH151" s="1"/>
-      <c r="AI151" s="1"/>
-      <c r="AJ151" s="1"/>
-      <c r="AK151" s="1"/>
-      <c r="AL151" s="1"/>
-      <c r="AM151" s="1"/>
-    </row>
-    <row r="152" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="B152" s="123">
-        <v>340.95600000000002</v>
-      </c>
-      <c r="C152" s="123">
-        <v>364.51295999999996</v>
-      </c>
-      <c r="D152" s="122">
-        <v>340.95600000000002</v>
-      </c>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="1"/>
-      <c r="H152" s="1"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="5"/>
-      <c r="K152" s="5"/>
-      <c r="L152" s="1"/>
-      <c r="M152" s="1"/>
-      <c r="N152" s="1"/>
-      <c r="O152" s="1"/>
-      <c r="P152" s="1"/>
-      <c r="Q152" s="1"/>
-      <c r="R152" s="1"/>
-      <c r="S152" s="1"/>
-      <c r="T152" s="1"/>
-      <c r="U152" s="1"/>
-      <c r="V152" s="1"/>
-      <c r="W152" s="1"/>
-      <c r="X152" s="1"/>
-      <c r="Y152" s="1"/>
-      <c r="Z152" s="1"/>
-      <c r="AA152" s="1"/>
-      <c r="AB152" s="1"/>
-      <c r="AC152" s="1"/>
-      <c r="AD152" s="1"/>
-      <c r="AE152" s="1"/>
-      <c r="AF152" s="1"/>
-      <c r="AG152" s="1"/>
-      <c r="AH152" s="1"/>
-      <c r="AI152" s="1"/>
-      <c r="AJ152" s="1"/>
-      <c r="AK152" s="1"/>
-      <c r="AL152" s="1"/>
-      <c r="AM152" s="1"/>
-    </row>
-    <row r="153" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="121" t="s">
-        <v>34</v>
-      </c>
-      <c r="B153" s="120"/>
-      <c r="C153" s="120"/>
-      <c r="D153" s="119"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="5"/>
-      <c r="J153" s="5"/>
-      <c r="K153" s="5"/>
-      <c r="L153" s="1"/>
-      <c r="M153" s="1"/>
-      <c r="N153" s="1"/>
-      <c r="O153" s="1"/>
-      <c r="P153" s="1"/>
-      <c r="Q153" s="1"/>
-      <c r="R153" s="1"/>
-      <c r="S153" s="1"/>
-      <c r="T153" s="1"/>
-      <c r="U153" s="1"/>
-      <c r="V153" s="1"/>
-      <c r="W153" s="1"/>
-      <c r="X153" s="1"/>
-      <c r="Y153" s="1"/>
-      <c r="Z153" s="1"/>
-      <c r="AA153" s="1"/>
-      <c r="AB153" s="1"/>
-      <c r="AC153" s="1"/>
-      <c r="AD153" s="1"/>
-      <c r="AE153" s="1"/>
-      <c r="AF153" s="1"/>
-      <c r="AG153" s="1"/>
-      <c r="AH153" s="1"/>
-      <c r="AI153" s="1"/>
-      <c r="AJ153" s="1"/>
-      <c r="AK153" s="1"/>
-      <c r="AL153" s="1"/>
-      <c r="AM153" s="1"/>
-    </row>
-    <row r="154" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B154" s="54">
-        <v>31.913178436049684</v>
-      </c>
-      <c r="C154" s="54">
-        <v>37.845211908477395</v>
-      </c>
-      <c r="D154" s="53" t="s">
+      <c r="E143" s="96"/>
+      <c r="F143" s="80"/>
+      <c r="G143" s="80"/>
+      <c r="H143" s="80"/>
+      <c r="I143" s="80"/>
+      <c r="J143" s="80"/>
+    </row>
+    <row r="144" spans="1:32" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" s="100">
+        <v>27.159535635551148</v>
+      </c>
+      <c r="C144" s="100">
+        <v>24.245512066959851</v>
+      </c>
+      <c r="D144" s="99">
+        <v>4.2671611221449854</v>
+      </c>
+      <c r="E144" s="96"/>
+      <c r="F144" s="80"/>
+      <c r="G144" s="80"/>
+      <c r="H144" s="80"/>
+      <c r="I144" s="80"/>
+      <c r="J144" s="80"/>
+    </row>
+    <row r="145" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" s="98"/>
+      <c r="C145" s="98"/>
+      <c r="D145" s="97"/>
+      <c r="E145" s="96"/>
+      <c r="G145" s="80"/>
+      <c r="H145" s="80"/>
+      <c r="I145" s="80"/>
+      <c r="J145" s="80"/>
+    </row>
+    <row r="146" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" s="95">
+        <v>0.2553930733755666</v>
+      </c>
+      <c r="C146" s="95">
+        <v>0.38629829758415074</v>
+      </c>
+      <c r="D146" s="94">
+        <v>8.3427857828594729E-2</v>
+      </c>
+      <c r="G146" s="80"/>
+      <c r="H146" s="80"/>
+      <c r="I146" s="80"/>
+      <c r="J146" s="80"/>
+    </row>
+    <row r="147" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" s="93">
+        <v>0.21433206329287718</v>
+      </c>
+      <c r="C147" s="93">
+        <v>0.32741607245097826</v>
+      </c>
+      <c r="D147" s="84">
+        <v>7.6599491533628078E-2</v>
+      </c>
+      <c r="G147" s="80"/>
+      <c r="H147" s="80"/>
+      <c r="I147" s="80"/>
+      <c r="J147" s="80"/>
+    </row>
+    <row r="148" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" s="92">
+        <v>1.2845900092504756</v>
+      </c>
+      <c r="C148" s="92">
+        <v>1.9468041036553076</v>
+      </c>
+      <c r="D148" s="83">
+        <v>0.298237227592419</v>
+      </c>
+      <c r="G148" s="80"/>
+      <c r="H148" s="80"/>
+      <c r="I148" s="80"/>
+      <c r="J148" s="80"/>
+    </row>
+    <row r="149" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" s="91">
         <v>0</v>
       </c>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
-      <c r="I154" s="5"/>
-      <c r="J154" s="5"/>
-      <c r="K154" s="5"/>
-      <c r="L154" s="1"/>
-      <c r="M154" s="1"/>
-      <c r="N154" s="1"/>
-      <c r="O154" s="1"/>
-      <c r="P154" s="1"/>
-      <c r="Q154" s="1"/>
-      <c r="R154" s="1"/>
-      <c r="S154" s="1"/>
-      <c r="T154" s="1"/>
-      <c r="U154" s="1"/>
-      <c r="V154" s="1"/>
-      <c r="W154" s="1"/>
-      <c r="X154" s="1"/>
-      <c r="Y154" s="1"/>
-      <c r="Z154" s="1"/>
-      <c r="AA154" s="1"/>
-      <c r="AB154" s="1"/>
-      <c r="AC154" s="1"/>
-      <c r="AD154" s="1"/>
-      <c r="AE154" s="1"/>
-      <c r="AF154" s="1"/>
-      <c r="AG154" s="1"/>
-      <c r="AH154" s="1"/>
-      <c r="AI154" s="1"/>
-      <c r="AJ154" s="1"/>
-      <c r="AK154" s="1"/>
-      <c r="AL154" s="1"/>
-      <c r="AM154" s="1"/>
-    </row>
-    <row r="155" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B155" s="52">
-        <v>23.328015234253229</v>
-      </c>
-      <c r="C155" s="52">
-        <v>26.416903770041706</v>
-      </c>
-      <c r="D155" s="55">
-        <v>4.2671611221449854</v>
-      </c>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="5"/>
-      <c r="K155" s="5"/>
-      <c r="L155" s="1"/>
-      <c r="M155" s="1"/>
-      <c r="N155" s="1"/>
-      <c r="O155" s="1"/>
-      <c r="P155" s="1"/>
-      <c r="Q155" s="1"/>
-      <c r="R155" s="1"/>
-      <c r="S155" s="1"/>
-      <c r="T155" s="1"/>
-      <c r="U155" s="1"/>
-      <c r="V155" s="1"/>
-      <c r="W155" s="1"/>
-      <c r="X155" s="1"/>
-      <c r="Y155" s="1"/>
-      <c r="Z155" s="1"/>
-      <c r="AA155" s="1"/>
-      <c r="AB155" s="1"/>
-      <c r="AC155" s="1"/>
-      <c r="AD155" s="1"/>
-      <c r="AE155" s="1"/>
-      <c r="AF155" s="1"/>
-      <c r="AG155" s="1"/>
-      <c r="AH155" s="1"/>
-      <c r="AI155" s="1"/>
-      <c r="AJ155" s="1"/>
-      <c r="AK155" s="1"/>
-      <c r="AL155" s="1"/>
-      <c r="AM155" s="1"/>
-    </row>
-    <row r="156" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B156" s="50">
-        <v>105.06096135895278</v>
-      </c>
-      <c r="C156" s="50">
-        <v>115.56829836952207</v>
-      </c>
-      <c r="D156" s="49" t="s">
+      <c r="C149" s="91">
         <v>0</v>
       </c>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
-      <c r="I156" s="5"/>
-      <c r="J156" s="5"/>
-      <c r="K156" s="5"/>
-      <c r="L156" s="1"/>
-      <c r="M156" s="1"/>
-      <c r="N156" s="1"/>
-      <c r="O156" s="1"/>
-      <c r="P156" s="1"/>
-      <c r="Q156" s="1"/>
-      <c r="R156" s="1"/>
-      <c r="S156" s="1"/>
-      <c r="T156" s="1"/>
-      <c r="U156" s="1"/>
-      <c r="V156" s="1"/>
-      <c r="W156" s="1"/>
-      <c r="X156" s="1"/>
-      <c r="Y156" s="1"/>
-      <c r="Z156" s="1"/>
-      <c r="AA156" s="1"/>
-      <c r="AB156" s="1"/>
-      <c r="AC156" s="1"/>
-      <c r="AD156" s="1"/>
-      <c r="AE156" s="1"/>
-      <c r="AF156" s="1"/>
-      <c r="AG156" s="1"/>
-      <c r="AH156" s="1"/>
-      <c r="AI156" s="1"/>
-      <c r="AJ156" s="1"/>
-      <c r="AK156" s="1"/>
-      <c r="AL156" s="1"/>
-      <c r="AM156" s="1"/>
-    </row>
-    <row r="157" spans="1:39" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="1"/>
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
-      <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
-      <c r="J157" s="2"/>
-      <c r="K157" s="1"/>
-      <c r="L157" s="1"/>
-      <c r="M157" s="1"/>
-      <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
-      <c r="P157" s="1"/>
-      <c r="Q157" s="1"/>
-      <c r="R157" s="1"/>
-      <c r="S157" s="1"/>
-      <c r="T157" s="1"/>
-      <c r="U157" s="1"/>
-      <c r="V157" s="1"/>
-      <c r="W157" s="1"/>
-      <c r="X157" s="1"/>
-      <c r="Y157" s="1"/>
-      <c r="Z157" s="1"/>
-      <c r="AA157" s="1"/>
-      <c r="AB157" s="1"/>
-      <c r="AC157" s="1"/>
-      <c r="AD157" s="1"/>
-      <c r="AE157" s="1"/>
-      <c r="AF157" s="1"/>
-      <c r="AG157" s="1"/>
-      <c r="AH157" s="1"/>
-      <c r="AI157" s="1"/>
-      <c r="AJ157" s="1"/>
-      <c r="AK157" s="1"/>
-      <c r="AL157" s="1"/>
-      <c r="AM157" s="1"/>
-    </row>
-    <row r="158" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-    </row>
-    <row r="159" spans="1:39" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B159" s="118"/>
-      <c r="C159" s="5"/>
-      <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-    </row>
-    <row r="160" spans="1:39" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B160" s="117"/>
-      <c r="C160" s="117"/>
-      <c r="D160" s="116"/>
-      <c r="E160" s="5"/>
-    </row>
-    <row r="161" spans="1:32" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="18"/>
-      <c r="B161" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="C161" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="D161" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="E161" s="5"/>
-      <c r="F161" s="48"/>
-    </row>
-    <row r="162" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="B162" s="69">
-        <v>2172762.8508440917</v>
-      </c>
-      <c r="C162" s="69">
-        <v>3394371.6893743789</v>
-      </c>
-      <c r="D162" s="68">
-        <v>327717.97418073489</v>
-      </c>
-      <c r="E162" s="5"/>
-      <c r="F162" s="85"/>
-      <c r="G162" s="48"/>
-      <c r="J162" s="48"/>
-    </row>
-    <row r="163" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B163" s="47">
-        <v>4535.0228401191662</v>
-      </c>
-      <c r="C163" s="47">
-        <v>5198.9433962264156</v>
-      </c>
-      <c r="D163" s="33">
-        <v>1370</v>
-      </c>
-      <c r="E163" s="5"/>
-      <c r="F163" s="85"/>
-      <c r="G163" s="85"/>
-      <c r="J163" s="85"/>
-    </row>
-    <row r="164" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B164" s="46">
-        <v>60000</v>
-      </c>
-      <c r="C164" s="46">
-        <v>125000</v>
-      </c>
-      <c r="D164" s="34">
-        <v>18000</v>
-      </c>
-      <c r="E164" s="5"/>
-      <c r="F164" s="85"/>
-      <c r="G164" s="85"/>
-      <c r="H164" s="85"/>
-      <c r="I164" s="85"/>
-      <c r="J164" s="85"/>
-    </row>
-    <row r="165" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B165" s="47">
-        <v>2000</v>
-      </c>
-      <c r="C165" s="47">
-        <v>3500</v>
-      </c>
-      <c r="D165" s="33">
-        <v>1920</v>
-      </c>
-      <c r="F165" s="85"/>
-      <c r="G165" s="85"/>
-      <c r="H165" s="85"/>
-      <c r="I165" s="85"/>
-      <c r="J165" s="85"/>
-    </row>
-    <row r="166" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B166" s="46">
-        <v>340.95600000000002</v>
-      </c>
-      <c r="C166" s="46">
-        <v>364.51295999999996</v>
-      </c>
-      <c r="D166" s="46">
-        <v>340.95600000000002</v>
-      </c>
-      <c r="E166" s="115"/>
-      <c r="F166" s="85"/>
-      <c r="G166" s="85"/>
-      <c r="H166" s="85"/>
-      <c r="I166" s="85"/>
-      <c r="J166" s="85"/>
-    </row>
-    <row r="167" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B167" s="114">
+      <c r="D149" s="90">
+        <v>0</v>
+      </c>
+      <c r="G149" s="80"/>
+      <c r="H149" s="80"/>
+      <c r="I149" s="80"/>
+      <c r="J149" s="80"/>
+    </row>
+    <row r="150" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" s="89">
+        <v>0.84</v>
+      </c>
+      <c r="C150" s="89">
+        <v>0.79</v>
+      </c>
+      <c r="D150" s="88">
+        <v>0.94</v>
+      </c>
+      <c r="G150" s="80"/>
+      <c r="H150" s="80"/>
+      <c r="I150" s="80"/>
+      <c r="J150" s="80"/>
+    </row>
+    <row r="151" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" s="87">
         <v>1</v>
       </c>
-      <c r="C167" s="114">
+      <c r="C151" s="87">
         <v>1</v>
       </c>
-      <c r="D167" s="78">
+      <c r="D151" s="86">
         <v>1</v>
       </c>
-      <c r="E167" s="5"/>
-      <c r="F167" s="85"/>
-      <c r="G167" s="85"/>
-      <c r="H167" s="85"/>
-      <c r="I167" s="85"/>
-      <c r="J167" s="85"/>
-    </row>
-    <row r="168" spans="1:32" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="B168" s="46">
-        <v>340.95600000000002</v>
-      </c>
-      <c r="C168" s="46">
-        <v>364.51295999999996</v>
-      </c>
-      <c r="D168" s="34">
-        <v>340.95600000000002</v>
-      </c>
-      <c r="E168" s="113"/>
-      <c r="F168" s="85"/>
-      <c r="G168" s="85"/>
-      <c r="H168" s="85"/>
-      <c r="I168" s="85"/>
-      <c r="J168" s="85"/>
-      <c r="K168" s="1"/>
-      <c r="L168" s="1"/>
-      <c r="M168" s="1"/>
-      <c r="N168" s="1"/>
-      <c r="O168" s="1"/>
-      <c r="P168" s="1"/>
-      <c r="Q168" s="1"/>
-      <c r="R168" s="1"/>
-      <c r="S168" s="1"/>
-      <c r="T168" s="1"/>
-      <c r="U168" s="1"/>
-      <c r="V168" s="1"/>
-      <c r="W168" s="1"/>
-      <c r="X168" s="1"/>
-      <c r="Y168" s="1"/>
-      <c r="Z168" s="1"/>
-      <c r="AA168" s="1"/>
-      <c r="AB168" s="1"/>
-      <c r="AC168" s="1"/>
-      <c r="AD168" s="1"/>
-      <c r="AE168" s="1"/>
-      <c r="AF168" s="1"/>
-    </row>
-    <row r="169" spans="1:32" s="4" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="B169" s="44">
-        <v>356.22399999999999</v>
-      </c>
-      <c r="C169" s="44">
-        <v>356.22399999999999</v>
-      </c>
-      <c r="D169" s="43">
-        <v>356.22399999999999</v>
-      </c>
-      <c r="E169" s="102"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="85"/>
-      <c r="H169" s="85"/>
-      <c r="I169" s="85"/>
-      <c r="J169" s="85"/>
-      <c r="K169" s="1"/>
-      <c r="L169" s="1"/>
-      <c r="M169" s="1"/>
-      <c r="N169" s="1"/>
-      <c r="O169" s="1"/>
-      <c r="P169" s="1"/>
-      <c r="Q169" s="1"/>
-      <c r="R169" s="1"/>
-      <c r="S169" s="1"/>
-      <c r="T169" s="1"/>
-      <c r="U169" s="1"/>
-      <c r="V169" s="1"/>
-      <c r="W169" s="1"/>
-      <c r="X169" s="1"/>
-      <c r="Y169" s="1"/>
-      <c r="Z169" s="1"/>
-      <c r="AA169" s="1"/>
-      <c r="AB169" s="1"/>
-      <c r="AC169" s="1"/>
-      <c r="AD169" s="1"/>
-      <c r="AE169" s="1"/>
-      <c r="AF169" s="1"/>
-    </row>
-    <row r="170" spans="1:32" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B170" s="112"/>
-      <c r="C170" s="112"/>
-      <c r="D170" s="111"/>
-      <c r="F170" s="85"/>
-      <c r="H170" s="85"/>
-      <c r="I170" s="85"/>
-    </row>
-    <row r="171" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B171" s="110">
-        <v>0.13</v>
-      </c>
-      <c r="C171" s="110">
-        <v>0.13</v>
-      </c>
-      <c r="D171" s="109">
-        <v>0.13</v>
-      </c>
-      <c r="F171" s="85"/>
-      <c r="G171" s="85"/>
-      <c r="H171" s="85"/>
-      <c r="I171" s="85"/>
-      <c r="J171" s="85"/>
-    </row>
-    <row r="172" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B172" s="108">
-        <v>1</v>
-      </c>
-      <c r="C172" s="108">
-        <v>1</v>
-      </c>
-      <c r="D172" s="107">
-        <v>1</v>
-      </c>
-      <c r="F172" s="85"/>
-      <c r="G172" s="85"/>
-      <c r="H172" s="85"/>
-      <c r="I172" s="85"/>
-      <c r="J172" s="85"/>
-    </row>
-    <row r="173" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B173" s="98">
-        <v>4.7076528434955325</v>
-      </c>
-      <c r="C173" s="98">
-        <v>3.5301465569493544</v>
-      </c>
-      <c r="D173" s="98">
-        <v>2.3668520357497522</v>
-      </c>
-      <c r="E173" s="102"/>
-      <c r="F173" s="85"/>
-      <c r="G173" s="85"/>
-      <c r="H173" s="85"/>
-      <c r="I173" s="85"/>
-      <c r="J173" s="85"/>
-    </row>
-    <row r="174" spans="1:32" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B174" s="106">
-        <v>27.159535635551148</v>
-      </c>
-      <c r="C174" s="106">
-        <v>24.245512066959851</v>
-      </c>
-      <c r="D174" s="105">
-        <v>4.2671611221449854</v>
-      </c>
-      <c r="E174" s="102"/>
-      <c r="F174" s="85"/>
-      <c r="G174" s="85"/>
-      <c r="H174" s="85"/>
-      <c r="I174" s="85"/>
-      <c r="J174" s="85"/>
-    </row>
-    <row r="175" spans="1:32" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B175" s="104"/>
-      <c r="C175" s="104"/>
-      <c r="D175" s="103"/>
-      <c r="E175" s="102"/>
-      <c r="G175" s="85"/>
-      <c r="H175" s="85"/>
-      <c r="I175" s="85"/>
-      <c r="J175" s="85"/>
-    </row>
-    <row r="176" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B176" s="101">
-        <v>0.2553930733755666</v>
-      </c>
-      <c r="C176" s="101">
-        <v>0.38629829758415074</v>
-      </c>
-      <c r="D176" s="100">
-        <v>8.3427857828594729E-2</v>
-      </c>
-      <c r="G176" s="85"/>
-      <c r="H176" s="85"/>
-      <c r="I176" s="85"/>
-      <c r="J176" s="85"/>
-    </row>
-    <row r="177" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B177" s="99">
-        <v>0.21433206329287718</v>
-      </c>
-      <c r="C177" s="99">
-        <v>0.32741607245097826</v>
-      </c>
-      <c r="D177" s="90">
-        <v>7.6599491533628078E-2</v>
-      </c>
-      <c r="G177" s="85"/>
-      <c r="H177" s="85"/>
-      <c r="I177" s="85"/>
-      <c r="J177" s="85"/>
-    </row>
-    <row r="178" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B178" s="98">
-        <v>1.2845900092504756</v>
-      </c>
-      <c r="C178" s="98">
-        <v>1.9468041036553076</v>
-      </c>
-      <c r="D178" s="89">
-        <v>0.298237227592419</v>
-      </c>
-      <c r="G178" s="85"/>
-      <c r="H178" s="85"/>
-      <c r="I178" s="85"/>
-      <c r="J178" s="85"/>
-    </row>
-    <row r="179" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B179" s="97">
-        <v>0</v>
-      </c>
-      <c r="C179" s="97">
-        <v>0</v>
-      </c>
-      <c r="D179" s="96">
-        <v>0</v>
-      </c>
-      <c r="G179" s="85"/>
-      <c r="H179" s="85"/>
-      <c r="I179" s="85"/>
-      <c r="J179" s="85"/>
-    </row>
-    <row r="180" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="B180" s="95">
-        <v>0.84</v>
-      </c>
-      <c r="C180" s="95">
-        <v>0.79</v>
-      </c>
-      <c r="D180" s="94">
-        <v>0.94</v>
-      </c>
-      <c r="G180" s="85"/>
-      <c r="H180" s="85"/>
-      <c r="I180" s="85"/>
-      <c r="J180" s="85"/>
-    </row>
-    <row r="181" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B181" s="93">
-        <v>1</v>
-      </c>
-      <c r="C181" s="93">
-        <v>1</v>
-      </c>
-      <c r="D181" s="92">
-        <v>1</v>
-      </c>
-      <c r="G181" s="85"/>
-      <c r="H181" s="85"/>
-      <c r="I181" s="85"/>
-      <c r="J181" s="85"/>
-    </row>
-    <row r="182" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F182" s="48"/>
-      <c r="G182" s="48"/>
-    </row>
-    <row r="183" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F183" s="48"/>
-      <c r="G183" s="48"/>
-    </row>
-    <row r="184" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="3"/>
-    </row>
-    <row r="185" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="3"/>
-    </row>
-    <row r="186" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="G151" s="80"/>
+      <c r="H151" s="80"/>
+      <c r="I151" s="80"/>
+      <c r="J151" s="80"/>
+    </row>
+    <row r="152" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F152" s="43"/>
+      <c r="G152" s="43"/>
+    </row>
+    <row r="153" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F153" s="43"/>
+      <c r="G153" s="43"/>
+    </row>
+    <row r="154" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="3"/>
+    </row>
+    <row r="155" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="3"/>
+    </row>
+    <row r="156" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="193" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="194" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="195" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9598,47 +8961,17 @@
     <row r="202" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="203" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="204" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
